--- a/projects_2020/sports_loa/yale_athletics_master2021.xlsx
+++ b/projects_2020/sports_loa/yale_athletics_master2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AshleyQin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC053904-BC3D-5E4F-810B-477C3D92092A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25EF427-5011-F047-8205-DAE2037BB2B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16120" xr2:uid="{88FAA52A-4A7A-F149-888F-D5E12E6DA1BE}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88FAA52A-4A7A-F149-888F-D5E12E6DA1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2084" uniqueCount="951">
   <si>
     <t>Carson Swank</t>
   </si>
@@ -1702,13 +1702,1189 @@
   </si>
   <si>
     <t>Kenya Boston</t>
+  </si>
+  <si>
+    <t>Cameron Allen</t>
+  </si>
+  <si>
+    <t>mens_fencing</t>
+  </si>
+  <si>
+    <t>Men</t>
+  </si>
+  <si>
+    <t>Upper Makefield, PA</t>
+  </si>
+  <si>
+    <t>Kevin Callahan</t>
+  </si>
+  <si>
+    <t>Glen Rock, NJ</t>
+  </si>
+  <si>
+    <t>Earnest Chen</t>
+  </si>
+  <si>
+    <t>Weston, CT</t>
+  </si>
+  <si>
+    <t>Jonah Cho</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA</t>
+  </si>
+  <si>
+    <t>Nicolas Del Vecchio</t>
+  </si>
+  <si>
+    <t>Silver Spring, MD</t>
+  </si>
+  <si>
+    <t>Allan Ding</t>
+  </si>
+  <si>
+    <t>Dover, MA</t>
+  </si>
+  <si>
+    <t>Safi Haider</t>
+  </si>
+  <si>
+    <t>Alpharetta, GA</t>
+  </si>
+  <si>
+    <t>Elijah Hong</t>
+  </si>
+  <si>
+    <t>Nashville, TN</t>
+  </si>
+  <si>
+    <t>John Kim</t>
+  </si>
+  <si>
+    <t>Burke, VA</t>
+  </si>
+  <si>
+    <t>Daniel Li</t>
+  </si>
+  <si>
+    <t>Maple, Ontario</t>
+  </si>
+  <si>
+    <t>Francesco Spirli</t>
+  </si>
+  <si>
+    <t>Bologna, Italy</t>
+  </si>
+  <si>
+    <t>Maxwell Yee</t>
+  </si>
+  <si>
+    <t>Palos Verdes, CA</t>
+  </si>
+  <si>
+    <t>Mati Zeff</t>
+  </si>
+  <si>
+    <t>Philadelphia, PA</t>
+  </si>
+  <si>
+    <t>Andrew Zhang</t>
+  </si>
+  <si>
+    <t>Carmichael, CA</t>
+  </si>
+  <si>
+    <t>Darren Lin</t>
+  </si>
+  <si>
+    <t>mens_golf</t>
+  </si>
+  <si>
+    <t>Chino Hills, Calif.</t>
+  </si>
+  <si>
+    <t>Paul Stankey</t>
+  </si>
+  <si>
+    <t>Perry Xin</t>
+  </si>
+  <si>
+    <t>Sean Yi</t>
+  </si>
+  <si>
+    <t>Auburn, Wash.</t>
+  </si>
+  <si>
+    <t>Teddy Zinsner</t>
+  </si>
+  <si>
+    <t>Alexandria, Va.</t>
+  </si>
+  <si>
+    <t>Michael Alexander</t>
+  </si>
+  <si>
+    <t>mens_lacrosse</t>
+  </si>
+  <si>
+    <t>Philadelphia, Pa.</t>
+  </si>
+  <si>
+    <t>Thomas Bragg</t>
+  </si>
+  <si>
+    <t>Matt Brandau</t>
+  </si>
+  <si>
+    <t>Port Washington, N.Y.</t>
+  </si>
+  <si>
+    <t>Konrad Collins</t>
+  </si>
+  <si>
+    <t>Rochester, N.Y.</t>
+  </si>
+  <si>
+    <t>Christian Cropp</t>
+  </si>
+  <si>
+    <t>Westfield, N.J.</t>
+  </si>
+  <si>
+    <t>Bryce De Muth</t>
+  </si>
+  <si>
+    <t>Bedford, N.Y.</t>
+  </si>
+  <si>
+    <t>Luke Eschbach</t>
+  </si>
+  <si>
+    <t>Livingston, N.J.</t>
+  </si>
+  <si>
+    <t>Chris Fake</t>
+  </si>
+  <si>
+    <t>Norwalk, Conn.</t>
+  </si>
+  <si>
+    <t>Patrick Hackler</t>
+  </si>
+  <si>
+    <t>Bend, Ore.</t>
+  </si>
+  <si>
+    <t>Chris Hladczuk</t>
+  </si>
+  <si>
+    <t>Mahwah, N.J.</t>
+  </si>
+  <si>
+    <t>Sean Kuttin</t>
+  </si>
+  <si>
+    <t>Syosset, N.Y.</t>
+  </si>
+  <si>
+    <t>Miles Leniw</t>
+  </si>
+  <si>
+    <t>Victoria, B.C.</t>
+  </si>
+  <si>
+    <t>Brett Mallee</t>
+  </si>
+  <si>
+    <t>Smithtown, N.Y.</t>
+  </si>
+  <si>
+    <t>Xander Martin</t>
+  </si>
+  <si>
+    <t>Head of the Harbor, N.Y.</t>
+  </si>
+  <si>
+    <t>Brady McDermott</t>
+  </si>
+  <si>
+    <t>Jack Monfort</t>
+  </si>
+  <si>
+    <t>Stevenson, Md.</t>
+  </si>
+  <si>
+    <t>Joe Neuman</t>
+  </si>
+  <si>
+    <t>Jenkintown, Pa.</t>
+  </si>
+  <si>
+    <t>Jack Ocken</t>
+  </si>
+  <si>
+    <t>Skaneateles, N.Y.</t>
+  </si>
+  <si>
+    <t>Jared Paquette</t>
+  </si>
+  <si>
+    <t>West Islip, N.Y.</t>
+  </si>
+  <si>
+    <t>Korbin Pecora</t>
+  </si>
+  <si>
+    <t>North Haven, Conn.</t>
+  </si>
+  <si>
+    <t>Steven Reilly</t>
+  </si>
+  <si>
+    <t>Allentown, N.J.</t>
+  </si>
+  <si>
+    <t>Elliot Sawyer-Kaplan</t>
+  </si>
+  <si>
+    <t>Logan Soelberg</t>
+  </si>
+  <si>
+    <t>Jupiter, Fla.</t>
+  </si>
+  <si>
+    <t>Jack Starr</t>
+  </si>
+  <si>
+    <t>Landenberg, Pa.</t>
+  </si>
+  <si>
+    <t>Brian Tevlin</t>
+  </si>
+  <si>
+    <t>Griffin Thomas</t>
+  </si>
+  <si>
+    <t>Levittown, N.Y.</t>
+  </si>
+  <si>
+    <t>Griffin Wilson</t>
+  </si>
+  <si>
+    <t>Timonium, Md.</t>
+  </si>
+  <si>
+    <t>Skyler Wilson</t>
+  </si>
+  <si>
+    <t>Cazenovia, N.Y.</t>
+  </si>
+  <si>
+    <t>Jake Wornow</t>
+  </si>
+  <si>
+    <t>Saint James, N.Y.</t>
+  </si>
+  <si>
+    <t>Kyle Zawadzki</t>
+  </si>
+  <si>
+    <t>New Haven, Conn.</t>
+  </si>
+  <si>
+    <t>Cristian Bell</t>
+  </si>
+  <si>
+    <t>mens_swimming</t>
+  </si>
+  <si>
+    <t>Egg Harbor Township, N.J.</t>
+  </si>
+  <si>
+    <t>Michael Blank</t>
+  </si>
+  <si>
+    <t>East Windsor, N.J.</t>
+  </si>
+  <si>
+    <t>Liam Bogart</t>
+  </si>
+  <si>
+    <t>Scarborough, N.Y.</t>
+  </si>
+  <si>
+    <t>Patrick Frith</t>
+  </si>
+  <si>
+    <t>Tyler Harmon</t>
+  </si>
+  <si>
+    <t>Zionsville, Ind.</t>
+  </si>
+  <si>
+    <t>Greg Kalin</t>
+  </si>
+  <si>
+    <t>Cincinnati, Ohio</t>
+  </si>
+  <si>
+    <t>Connor Lee</t>
+  </si>
+  <si>
+    <t>South Pasadena, Calif.</t>
+  </si>
+  <si>
+    <t>Timmy Luz</t>
+  </si>
+  <si>
+    <t>Philippe Marcoux</t>
+  </si>
+  <si>
+    <t>Fort Lauderdale, Fla.</t>
+  </si>
+  <si>
+    <t>Jack O'Connor</t>
+  </si>
+  <si>
+    <t>Homer Glen, Ill.</t>
+  </si>
+  <si>
+    <t>Marcos Ortiz</t>
+  </si>
+  <si>
+    <t>Lawrenceville, N.J.</t>
+  </si>
+  <si>
+    <t>Sam Pekarek</t>
+  </si>
+  <si>
+    <t>Apple Valley, Minn.</t>
+  </si>
+  <si>
+    <t>Jami Rzepecki</t>
+  </si>
+  <si>
+    <t>Evan Schott</t>
+  </si>
+  <si>
+    <t>Andrew Schuler</t>
+  </si>
+  <si>
+    <t>Nathan Stern</t>
+  </si>
+  <si>
+    <t>Bangkok, Thailand</t>
+  </si>
+  <si>
+    <t>Owen Stevens</t>
+  </si>
+  <si>
+    <t>Felix Van Cauwelaert</t>
+  </si>
+  <si>
+    <t>Calvin Yang</t>
+  </si>
+  <si>
+    <t>Arnav Dhingra</t>
+  </si>
+  <si>
+    <t>mens_tennis</t>
+  </si>
+  <si>
+    <t>Darnestown, Maryland</t>
+  </si>
+  <si>
+    <t>Daniel Gale</t>
+  </si>
+  <si>
+    <t>Boca Raton, Fla.</t>
+  </si>
+  <si>
+    <t>Cody Lin</t>
+  </si>
+  <si>
+    <t>Thousand Oaks, California</t>
+  </si>
+  <si>
+    <t>Louis Siegler</t>
+  </si>
+  <si>
+    <t>Alan Sou</t>
+  </si>
+  <si>
+    <t>Michael Sun</t>
+  </si>
+  <si>
+    <t>Livingston, New Jersey</t>
+  </si>
+  <si>
+    <t>Ekrem Ayhan</t>
+  </si>
+  <si>
+    <t>mens_track</t>
+  </si>
+  <si>
+    <t>Hackettstown, N.J.</t>
+  </si>
+  <si>
+    <t>Neil Braganza</t>
+  </si>
+  <si>
+    <t>San Ramon, Calif.</t>
+  </si>
+  <si>
+    <t>Cade Brown</t>
+  </si>
+  <si>
+    <t>Bellingham, Wash.</t>
+  </si>
+  <si>
+    <t>Nick Dahl</t>
+  </si>
+  <si>
+    <t>Jack Dunn</t>
+  </si>
+  <si>
+    <t>Barrington, R.I.</t>
+  </si>
+  <si>
+    <t>Itamar Fayler</t>
+  </si>
+  <si>
+    <t>Benei Dror, Israel</t>
+  </si>
+  <si>
+    <t>Charlie Gardner</t>
+  </si>
+  <si>
+    <t>Southlake, Texas</t>
+  </si>
+  <si>
+    <t>Liam Garrett</t>
+  </si>
+  <si>
+    <t>Harry Grindle</t>
+  </si>
+  <si>
+    <t>Darius Jing</t>
+  </si>
+  <si>
+    <t>Arcadia, Calif.</t>
+  </si>
+  <si>
+    <t>Will Laird</t>
+  </si>
+  <si>
+    <t>Robert Miranda</t>
+  </si>
+  <si>
+    <t>Stephen Moody</t>
+  </si>
+  <si>
+    <t>Glen Ellyn, Ill.</t>
+  </si>
+  <si>
+    <t>Brendan Murray</t>
+  </si>
+  <si>
+    <t>Odera Nweke</t>
+  </si>
+  <si>
+    <t>Woodbine,Md</t>
+  </si>
+  <si>
+    <t>Evan Pattinelli</t>
+  </si>
+  <si>
+    <t>La Canada Flintridge, Calif.</t>
+  </si>
+  <si>
+    <t>Patrick Perry</t>
+  </si>
+  <si>
+    <t>Manlius, N.Y.</t>
+  </si>
+  <si>
+    <t>Andrew Rochon</t>
+  </si>
+  <si>
+    <t>Coopersburg, Pa.</t>
+  </si>
+  <si>
+    <t>Hugh Sadler</t>
+  </si>
+  <si>
+    <t>Bristol, U.K.</t>
+  </si>
+  <si>
+    <t>Henry Saul</t>
+  </si>
+  <si>
+    <t>Juma Sei</t>
+  </si>
+  <si>
+    <t>Harrison Smith</t>
+  </si>
+  <si>
+    <t>Southend-on-Sea, Essex, U.K.</t>
+  </si>
+  <si>
+    <t>Ryan Smithers</t>
+  </si>
+  <si>
+    <t>Richard Sturtevant</t>
+  </si>
+  <si>
+    <t>Leyden, Mass.</t>
+  </si>
+  <si>
+    <t>Alex Whittaker</t>
+  </si>
+  <si>
+    <t>Laurel, Maryland</t>
+  </si>
+  <si>
+    <t>Jeamy Williams</t>
+  </si>
+  <si>
+    <t>Surgoinsville, Tennessee</t>
+  </si>
+  <si>
+    <t>Marcus Woods</t>
+  </si>
+  <si>
+    <t>Charlotte, NC</t>
+  </si>
+  <si>
+    <t>Cameron Wyman</t>
+  </si>
+  <si>
+    <t>Gig Harbor, Wash.</t>
+  </si>
+  <si>
+    <t>Justin Yazdi</t>
+  </si>
+  <si>
+    <t>Franklin Lakes, NJ</t>
+  </si>
+  <si>
+    <t>Phil Zuccaro</t>
+  </si>
+  <si>
+    <t>Westlake, Ohio</t>
+  </si>
+  <si>
+    <t>Anisha Arcot</t>
+  </si>
+  <si>
+    <t>sailing</t>
+  </si>
+  <si>
+    <t>coed</t>
+  </si>
+  <si>
+    <t>West Linn, Ore.</t>
+  </si>
+  <si>
+    <t>Luke Arnone</t>
+  </si>
+  <si>
+    <t>Istanbul, Turkey</t>
+  </si>
+  <si>
+    <t>Jacob Asher</t>
+  </si>
+  <si>
+    <t>Traverse City, Mich.</t>
+  </si>
+  <si>
+    <t>Mina Cezairli</t>
+  </si>
+  <si>
+    <t>Christophe Chaumont</t>
+  </si>
+  <si>
+    <t>Kathryn Clulo</t>
+  </si>
+  <si>
+    <t>Islesboro, Maine</t>
+  </si>
+  <si>
+    <t>Alexandra Contomichalos</t>
+  </si>
+  <si>
+    <t>North Palm Beach, Fla.</t>
+  </si>
+  <si>
+    <t>Nicholas Davies</t>
+  </si>
+  <si>
+    <t>Yarmouth, Mass.</t>
+  </si>
+  <si>
+    <t>Megan Grimes</t>
+  </si>
+  <si>
+    <t>Shawn Harvey</t>
+  </si>
+  <si>
+    <t>Larchmont, NY.</t>
+  </si>
+  <si>
+    <t>Emily Lau</t>
+  </si>
+  <si>
+    <t>Old Tappan, N.J.</t>
+  </si>
+  <si>
+    <t>B Lindsay</t>
+  </si>
+  <si>
+    <t>Sonia Lingos-Utley</t>
+  </si>
+  <si>
+    <t>Claudia Loiacono</t>
+  </si>
+  <si>
+    <t>Buffalo, N.Y.</t>
+  </si>
+  <si>
+    <t>Cate Mollerus</t>
+  </si>
+  <si>
+    <t>Fairfield, Conn.</t>
+  </si>
+  <si>
+    <t>Petru Neagu</t>
+  </si>
+  <si>
+    <t>Skylar Regan</t>
+  </si>
+  <si>
+    <t>Grand Rapids, Mich.</t>
+  </si>
+  <si>
+    <t>Allison Rice</t>
+  </si>
+  <si>
+    <t>Coronado, Calif.</t>
+  </si>
+  <si>
+    <t>Becca Rose</t>
+  </si>
+  <si>
+    <t>Mantoloking, N.J.</t>
+  </si>
+  <si>
+    <t>Meredith Ryan</t>
+  </si>
+  <si>
+    <t>Jonathan Schwartz</t>
+  </si>
+  <si>
+    <t>Forth Worth, Texas</t>
+  </si>
+  <si>
+    <t>Martin Tipton</t>
+  </si>
+  <si>
+    <t>Vufflens-leChateau, Switzerland</t>
+  </si>
+  <si>
+    <t>Sam Tobin</t>
+  </si>
+  <si>
+    <t>Emery Wallace</t>
+  </si>
+  <si>
+    <t>Bucharest, Romania</t>
+  </si>
+  <si>
+    <t>Helena Ware</t>
+  </si>
+  <si>
+    <t>St. Thomas, U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>Catherine Webb</t>
+  </si>
+  <si>
+    <t>Indianapolis, Ind</t>
+  </si>
+  <si>
+    <t>Kathleen Wells</t>
+  </si>
+  <si>
+    <t>Adam Wolnikowski</t>
+  </si>
+  <si>
+    <t>Sydney Zoehrer</t>
+  </si>
+  <si>
+    <t>Lancaster, Pa.</t>
+  </si>
+  <si>
+    <t>mens_crosscountry</t>
+  </si>
+  <si>
+    <t>Aaron Cullen</t>
+  </si>
+  <si>
+    <t>Dublin, Ireland</t>
+  </si>
+  <si>
+    <t>Sean Kay</t>
+  </si>
+  <si>
+    <t>Arlington, Mass.</t>
+  </si>
+  <si>
+    <t>Manlius, NY.</t>
+  </si>
+  <si>
+    <t>Drake Prince</t>
+  </si>
+  <si>
+    <t>Bonita, Calif.</t>
+  </si>
+  <si>
+    <t>Martin Riddell</t>
+  </si>
+  <si>
+    <t>Haddonfield, N.J.</t>
+  </si>
+  <si>
+    <t>SouthendonSea, Essex, U.K.</t>
+  </si>
+  <si>
+    <t>Laurel, Md.</t>
+  </si>
+  <si>
+    <t>Tobias Wolfson</t>
+  </si>
+  <si>
+    <t>Noah Aaron</t>
+  </si>
+  <si>
+    <t>football</t>
+  </si>
+  <si>
+    <t>Winston-Salem, N.C.</t>
+  </si>
+  <si>
+    <t>Brian Abraham</t>
+  </si>
+  <si>
+    <t>Brandon Babcock</t>
+  </si>
+  <si>
+    <t>Gilbert, Ariz.</t>
+  </si>
+  <si>
+    <t>Jermaine Baker</t>
+  </si>
+  <si>
+    <t>Westchester, Ill.</t>
+  </si>
+  <si>
+    <t>Brayden Carey</t>
+  </si>
+  <si>
+    <t>Newnan, Ga.</t>
+  </si>
+  <si>
+    <t>Darrion Carrington</t>
+  </si>
+  <si>
+    <t>Lakewood, N.J.</t>
+  </si>
+  <si>
+    <t>Zane Dudek</t>
+  </si>
+  <si>
+    <t>Kittanning, Pa.</t>
+  </si>
+  <si>
+    <t>Stockholm, Sweden</t>
+  </si>
+  <si>
+    <t>Brett Gerber</t>
+  </si>
+  <si>
+    <t>Bradenton, Fla.</t>
+  </si>
+  <si>
+    <t>Jaylan Granberry</t>
+  </si>
+  <si>
+    <t>Jailon Henry</t>
+  </si>
+  <si>
+    <t>Tallahassee, Fla.</t>
+  </si>
+  <si>
+    <t>Deonte Henson</t>
+  </si>
+  <si>
+    <t>Beaumont, Texas</t>
+  </si>
+  <si>
+    <t>Blake Hill</t>
+  </si>
+  <si>
+    <t>Milford, Mass.</t>
+  </si>
+  <si>
+    <t>Trenton Johnson</t>
+  </si>
+  <si>
+    <t>Tyler Jost</t>
+  </si>
+  <si>
+    <t>Libertyville, Ill.</t>
+  </si>
+  <si>
+    <t>Alan Lamar</t>
+  </si>
+  <si>
+    <t>Olive Branch, Miss.</t>
+  </si>
+  <si>
+    <t>Marcus Mauney</t>
+  </si>
+  <si>
+    <t>Gastonia, N.C.</t>
+  </si>
+  <si>
+    <t>Elliott McElwain</t>
+  </si>
+  <si>
+    <t>Trussville, Ala.</t>
+  </si>
+  <si>
+    <t>Joshua McKenzie</t>
+  </si>
+  <si>
+    <t>Wall, N.J.</t>
+  </si>
+  <si>
+    <t>Isaac Mitchell</t>
+  </si>
+  <si>
+    <t>Salina, Kan.</t>
+  </si>
+  <si>
+    <t>Hamilton Moore</t>
+  </si>
+  <si>
+    <t>Raleigh, N.C.</t>
+  </si>
+  <si>
+    <t>Miles Oldacre</t>
+  </si>
+  <si>
+    <t>Spring, Texas</t>
+  </si>
+  <si>
+    <t>Seun Omonije</t>
+  </si>
+  <si>
+    <t>The Colony, Texas</t>
+  </si>
+  <si>
+    <t>Wande Owens</t>
+  </si>
+  <si>
+    <t>Cooksville, Md.</t>
+  </si>
+  <si>
+    <t>Noah Pope</t>
+  </si>
+  <si>
+    <t>Memphis, Tenn.</t>
+  </si>
+  <si>
+    <t>Jaylan Sandifer</t>
+  </si>
+  <si>
+    <t>Warner Robins, Ga.</t>
+  </si>
+  <si>
+    <t>Cubby Schuller</t>
+  </si>
+  <si>
+    <t>Bedminster, N.J.</t>
+  </si>
+  <si>
+    <t>Conor Smith</t>
+  </si>
+  <si>
+    <t>Little Silver, N.J.</t>
+  </si>
+  <si>
+    <t>Nick Tibbetts</t>
+  </si>
+  <si>
+    <t>Uncasville, Conn.</t>
+  </si>
+  <si>
+    <t>Joseph Vaughn</t>
+  </si>
+  <si>
+    <t>San Jose, Calif.</t>
+  </si>
+  <si>
+    <t>Cole Donhauser</t>
+  </si>
+  <si>
+    <t>mens_hockey</t>
+  </si>
+  <si>
+    <t>Malden, Mass.</t>
+  </si>
+  <si>
+    <t>Curtis Hall</t>
+  </si>
+  <si>
+    <t>Purchase, NY</t>
+  </si>
+  <si>
+    <t>Connor Hopkins</t>
+  </si>
+  <si>
+    <t>Manhattan Beach, Calif.</t>
+  </si>
+  <si>
+    <t>Brett Jewell</t>
+  </si>
+  <si>
+    <t>Marshfield, Mass.</t>
+  </si>
+  <si>
+    <t>Kyle Johnson</t>
+  </si>
+  <si>
+    <t>Woodbury, N.Y.</t>
+  </si>
+  <si>
+    <t>Phil Kemp</t>
+  </si>
+  <si>
+    <t>Whippany, N.J.</t>
+  </si>
+  <si>
+    <t>Graham Lillibridge</t>
+  </si>
+  <si>
+    <t>Port Moody, B.C.</t>
+  </si>
+  <si>
+    <t>Eddie Massaro</t>
+  </si>
+  <si>
+    <t>Latham, N.Y.</t>
+  </si>
+  <si>
+    <t>Brian Matthews</t>
+  </si>
+  <si>
+    <t>Nashua, N.H.</t>
+  </si>
+  <si>
+    <t>Kevin O'Neil</t>
+  </si>
+  <si>
+    <t>Saskatoon, Sask.</t>
+  </si>
+  <si>
+    <t>Quinton Ong</t>
+  </si>
+  <si>
+    <t>Chagrin Falls, Ohio</t>
+  </si>
+  <si>
+    <t>Dante Palecco</t>
+  </si>
+  <si>
+    <t>Whistler, B.C.</t>
+  </si>
+  <si>
+    <t>Justin Pearson</t>
+  </si>
+  <si>
+    <t>Pemberville, Ohio</t>
+  </si>
+  <si>
+    <t>Hayden Rowan</t>
+  </si>
+  <si>
+    <t>Jack St. Ivany</t>
+  </si>
+  <si>
+    <t>Geneva, Ill.</t>
+  </si>
+  <si>
+    <t>Brandon Tabakin</t>
+  </si>
+  <si>
+    <t>Greenwich, Conn.</t>
+  </si>
+  <si>
+    <t>Tyler Welsh</t>
+  </si>
+  <si>
+    <t>Vernon, B.C.</t>
+  </si>
+  <si>
+    <t>Matias Alberola</t>
+  </si>
+  <si>
+    <t>mens_soccer</t>
+  </si>
+  <si>
+    <t>Whitefish Bay, Wisc.</t>
+  </si>
+  <si>
+    <t>Quanah Brayboy</t>
+  </si>
+  <si>
+    <t>Orchard Park, N.Y.</t>
+  </si>
+  <si>
+    <t>Paolo Carroll</t>
+  </si>
+  <si>
+    <t>Santa Fe, N.M</t>
+  </si>
+  <si>
+    <t>Elian Haddock</t>
+  </si>
+  <si>
+    <t>South Elgin, Ill.</t>
+  </si>
+  <si>
+    <t>Jeremy Haddock</t>
+  </si>
+  <si>
+    <t>Sao Paulo, Brazil</t>
+  </si>
+  <si>
+    <t>Sam Harshe</t>
+  </si>
+  <si>
+    <t>Dexter, Mich.</t>
+  </si>
+  <si>
+    <t>Andres Jasson</t>
+  </si>
+  <si>
+    <t>Asaba, Nigeria</t>
+  </si>
+  <si>
+    <t>Eric Lagos</t>
+  </si>
+  <si>
+    <t>Suwanee, Ga.</t>
+  </si>
+  <si>
+    <t>Daniel Massaad</t>
+  </si>
+  <si>
+    <t>La Jolla, Calif.</t>
+  </si>
+  <si>
+    <t>Kai Moos</t>
+  </si>
+  <si>
+    <t>Los Altos, Calif.</t>
+  </si>
+  <si>
+    <t>Jules Oberg</t>
+  </si>
+  <si>
+    <t>Enzo Okpoye</t>
+  </si>
+  <si>
+    <t>Jamie Orson</t>
+  </si>
+  <si>
+    <t>Jake Schaffer</t>
+  </si>
+  <si>
+    <t>Phoenix, Ariz.</t>
+  </si>
+  <si>
+    <t>Logan Sullivan</t>
+  </si>
+  <si>
+    <t>Saratoga, Calif.</t>
+  </si>
+  <si>
+    <t>Thomas Toney</t>
+  </si>
+  <si>
+    <t>Atlanta, Ga.</t>
+  </si>
+  <si>
+    <t>Olivier Van Spaendonck</t>
+  </si>
+  <si>
+    <t>St. Paul, Minn.</t>
+  </si>
+  <si>
+    <t>Mark Winhoffer</t>
+  </si>
+  <si>
+    <t>Kahveh Zahiroleslam</t>
+  </si>
+  <si>
+    <t>Tyler Carney</t>
+  </si>
+  <si>
+    <t>mens_squash</t>
+  </si>
+  <si>
+    <t>New Canaan, Conn.</t>
+  </si>
+  <si>
+    <t>Patrick Feeley</t>
+  </si>
+  <si>
+    <t>Harrison Gill</t>
+  </si>
+  <si>
+    <t>Nikhil Ismail</t>
+  </si>
+  <si>
+    <t>Eric Kim</t>
+  </si>
+  <si>
+    <t>Phoenixville, Pa.</t>
+  </si>
+  <si>
+    <t>Nadav Raziel</t>
+  </si>
+  <si>
+    <t>Hod Hasharon, Israel</t>
+  </si>
+  <si>
+    <t>Samuel Turner</t>
+  </si>
+  <si>
+    <t>Haverford, Pa.</t>
+  </si>
+  <si>
+    <t>Tiber Worth</t>
+  </si>
+  <si>
+    <t>Brooklyn, NY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1726,6 +2902,12 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1749,10 +2931,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2067,15 +3250,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5AF4B-3429-914F-87D4-8196E04559D2}">
-  <dimension ref="A1:I298"/>
+  <dimension ref="A1:J520"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" workbookViewId="0">
-      <selection activeCell="J295" sqref="J295"/>
+    <sheetView tabSelected="1" topLeftCell="A462" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K472" sqref="K472"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2101,7 +3287,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2128,7 +3314,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2155,7 +3341,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +3368,7 @@
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2209,7 +3395,7 @@
       </c>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2236,7 +3422,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2263,7 +3449,7 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -2290,7 +3476,7 @@
       </c>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -2317,7 +3503,7 @@
       </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2344,7 +3530,7 @@
       </c>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2371,7 +3557,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2398,7 +3584,7 @@
       </c>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -2425,7 +3611,7 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -2452,7 +3638,7 @@
       </c>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -2479,7 +3665,7 @@
       </c>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -2506,7 +3692,7 @@
       </c>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -2533,7 +3719,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -2560,7 +3746,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>44</v>
       </c>
@@ -2586,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
@@ -2613,7 +3799,7 @@
       </c>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2640,7 +3826,7 @@
       </c>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2667,7 +3853,7 @@
       </c>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -2694,7 +3880,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -2721,7 +3907,7 @@
       </c>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,7 +3934,7 @@
       </c>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>59</v>
       </c>
@@ -2775,7 +3961,7 @@
       </c>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -2802,7 +3988,7 @@
       </c>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
@@ -2829,7 +4015,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -2855,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
@@ -2882,7 +4068,7 @@
       </c>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2909,7 +4095,7 @@
       </c>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
@@ -2936,7 +4122,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2963,7 +4149,7 @@
       </c>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,7 +4176,7 @@
       </c>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>77</v>
       </c>
@@ -3017,7 +4203,7 @@
       </c>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>79</v>
       </c>
@@ -3044,7 +4230,7 @@
       </c>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -3071,7 +4257,7 @@
       </c>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>83</v>
       </c>
@@ -3098,7 +4284,7 @@
       </c>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>85</v>
       </c>
@@ -3125,7 +4311,7 @@
       </c>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -3152,7 +4338,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
@@ -3179,7 +4365,7 @@
       </c>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>91</v>
       </c>
@@ -3206,7 +4392,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>93</v>
       </c>
@@ -3233,7 +4419,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>95</v>
       </c>
@@ -3260,7 +4446,7 @@
       </c>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>97</v>
       </c>
@@ -3287,7 +4473,7 @@
       </c>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>99</v>
       </c>
@@ -3314,7 +4500,7 @@
       </c>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
@@ -3341,7 +4527,7 @@
       </c>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
@@ -3368,7 +4554,7 @@
       </c>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
@@ -3395,7 +4581,7 @@
       </c>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>105</v>
       </c>
@@ -3422,7 +4608,7 @@
       </c>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>107</v>
       </c>
@@ -3449,7 +4635,7 @@
       </c>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>109</v>
       </c>
@@ -3476,7 +4662,7 @@
       </c>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>111</v>
       </c>
@@ -3503,7 +4689,7 @@
       </c>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>113</v>
       </c>
@@ -3530,7 +4716,7 @@
       </c>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>115</v>
       </c>
@@ -3557,7 +4743,7 @@
       </c>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>116</v>
       </c>
@@ -3584,7 +4770,7 @@
       </c>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>118</v>
       </c>
@@ -3611,7 +4797,7 @@
       </c>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>120</v>
       </c>
@@ -3638,7 +4824,7 @@
       </c>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>122</v>
       </c>
@@ -3665,7 +4851,7 @@
       </c>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>124</v>
       </c>
@@ -3691,7 +4877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>127</v>
       </c>
@@ -3718,7 +4904,7 @@
       </c>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>129</v>
       </c>
@@ -3745,7 +4931,7 @@
       </c>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>131</v>
       </c>
@@ -3772,7 +4958,7 @@
       </c>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>133</v>
       </c>
@@ -3799,7 +4985,7 @@
       </c>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>134</v>
       </c>
@@ -3826,7 +5012,7 @@
       </c>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -3853,7 +5039,7 @@
       </c>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>137</v>
       </c>
@@ -3880,7 +5066,7 @@
       </c>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -3907,7 +5093,7 @@
       </c>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>141</v>
       </c>
@@ -3934,7 +5120,7 @@
       </c>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>142</v>
       </c>
@@ -3961,7 +5147,7 @@
       </c>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -3988,7 +5174,7 @@
       </c>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>145</v>
       </c>
@@ -4015,7 +5201,7 @@
       </c>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
@@ -4042,7 +5228,7 @@
       </c>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -4069,7 +5255,7 @@
       </c>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>151</v>
       </c>
@@ -4096,7 +5282,7 @@
       </c>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>152</v>
       </c>
@@ -4123,7 +5309,7 @@
       </c>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>154</v>
       </c>
@@ -4150,7 +5336,7 @@
       </c>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>156</v>
       </c>
@@ -4177,7 +5363,7 @@
       </c>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>158</v>
       </c>
@@ -4204,7 +5390,7 @@
       </c>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>160</v>
       </c>
@@ -4231,7 +5417,7 @@
       </c>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>162</v>
       </c>
@@ -4258,7 +5444,7 @@
       </c>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>164</v>
       </c>
@@ -4285,7 +5471,7 @@
       </c>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>166</v>
       </c>
@@ -4312,7 +5498,7 @@
       </c>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
@@ -4339,7 +5525,7 @@
       </c>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
@@ -4366,7 +5552,7 @@
       </c>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
@@ -4393,7 +5579,7 @@
       </c>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -4420,7 +5606,7 @@
       </c>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -4447,7 +5633,7 @@
       </c>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>175</v>
       </c>
@@ -4473,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
@@ -4500,7 +5686,7 @@
       </c>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>181</v>
       </c>
@@ -4527,7 +5713,7 @@
       </c>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>182</v>
       </c>
@@ -4554,7 +5740,7 @@
       </c>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -4581,7 +5767,7 @@
       </c>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>186</v>
       </c>
@@ -4608,7 +5794,7 @@
       </c>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -4635,7 +5821,7 @@
       </c>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>189</v>
       </c>
@@ -4662,7 +5848,7 @@
       </c>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>191</v>
       </c>
@@ -4689,7 +5875,7 @@
       </c>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>193</v>
       </c>
@@ -4716,7 +5902,7 @@
       </c>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>195</v>
       </c>
@@ -4742,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -4769,7 +5955,7 @@
       </c>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -4796,7 +5982,7 @@
       </c>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -4823,7 +6009,7 @@
       </c>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -4850,7 +6036,7 @@
       </c>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -4877,7 +6063,7 @@
       </c>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -4904,7 +6090,7 @@
       </c>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -4931,7 +6117,7 @@
       </c>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -4958,7 +6144,7 @@
       </c>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -4985,7 +6171,7 @@
       </c>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>215</v>
       </c>
@@ -5012,7 +6198,7 @@
       </c>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>216</v>
       </c>
@@ -5038,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
@@ -5065,7 +6251,7 @@
       </c>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>221</v>
       </c>
@@ -5092,7 +6278,7 @@
       </c>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>223</v>
       </c>
@@ -5119,7 +6305,7 @@
       </c>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -5146,7 +6332,7 @@
       </c>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
@@ -5173,7 +6359,7 @@
       </c>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
@@ -5200,7 +6386,7 @@
       </c>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>230</v>
       </c>
@@ -5227,7 +6413,7 @@
       </c>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>232</v>
       </c>
@@ -5254,7 +6440,7 @@
       </c>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>234</v>
       </c>
@@ -5280,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>237</v>
       </c>
@@ -5307,7 +6493,7 @@
       </c>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>239</v>
       </c>
@@ -5334,7 +6520,7 @@
       </c>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>241</v>
       </c>
@@ -5361,7 +6547,7 @@
       </c>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>242</v>
       </c>
@@ -5388,7 +6574,7 @@
       </c>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>244</v>
       </c>
@@ -5415,7 +6601,7 @@
       </c>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>245</v>
       </c>
@@ -5442,7 +6628,7 @@
       </c>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>247</v>
       </c>
@@ -5469,7 +6655,7 @@
       </c>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>248</v>
       </c>
@@ -5496,7 +6682,7 @@
       </c>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>250</v>
       </c>
@@ -5523,7 +6709,7 @@
       </c>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>252</v>
       </c>
@@ -5550,7 +6736,7 @@
       </c>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>254</v>
       </c>
@@ -5577,7 +6763,7 @@
       </c>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>256</v>
       </c>
@@ -5604,7 +6790,7 @@
       </c>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>258</v>
       </c>
@@ -5631,7 +6817,7 @@
       </c>
       <c r="I132" s="1"/>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>260</v>
       </c>
@@ -5658,7 +6844,7 @@
       </c>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>262</v>
       </c>
@@ -5685,7 +6871,7 @@
       </c>
       <c r="I134" s="1"/>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>264</v>
       </c>
@@ -5712,7 +6898,7 @@
       </c>
       <c r="I135" s="1"/>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>266</v>
       </c>
@@ -5739,7 +6925,7 @@
       </c>
       <c r="I136" s="1"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>268</v>
       </c>
@@ -5766,7 +6952,7 @@
       </c>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>270</v>
       </c>
@@ -5792,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>272</v>
       </c>
@@ -5818,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>275</v>
       </c>
@@ -5845,7 +7031,7 @@
       </c>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>277</v>
       </c>
@@ -5872,7 +7058,7 @@
       </c>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>279</v>
       </c>
@@ -5899,7 +7085,7 @@
       </c>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>281</v>
       </c>
@@ -5926,7 +7112,7 @@
       </c>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>283</v>
       </c>
@@ -5953,7 +7139,7 @@
       </c>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>285</v>
       </c>
@@ -5980,7 +7166,7 @@
       </c>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>287</v>
       </c>
@@ -6007,7 +7193,7 @@
       </c>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>289</v>
       </c>
@@ -6034,7 +7220,7 @@
       </c>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>291</v>
       </c>
@@ -6061,7 +7247,7 @@
       </c>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>293</v>
       </c>
@@ -6088,7 +7274,7 @@
       </c>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>294</v>
       </c>
@@ -6114,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>297</v>
       </c>
@@ -6141,7 +7327,7 @@
       </c>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>299</v>
       </c>
@@ -6168,7 +7354,7 @@
       </c>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>301</v>
       </c>
@@ -6195,7 +7381,7 @@
       </c>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>303</v>
       </c>
@@ -6222,7 +7408,7 @@
       </c>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>305</v>
       </c>
@@ -6249,7 +7435,7 @@
       </c>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>306</v>
       </c>
@@ -6276,7 +7462,7 @@
       </c>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>307</v>
       </c>
@@ -6303,7 +7489,7 @@
       </c>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>309</v>
       </c>
@@ -6330,7 +7516,7 @@
       </c>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>310</v>
       </c>
@@ -6357,7 +7543,7 @@
       </c>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>312</v>
       </c>
@@ -6384,7 +7570,7 @@
       </c>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>314</v>
       </c>
@@ -6411,7 +7597,7 @@
       </c>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>316</v>
       </c>
@@ -6438,7 +7624,7 @@
       </c>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>318</v>
       </c>
@@ -6465,7 +7651,7 @@
       </c>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>319</v>
       </c>
@@ -6492,7 +7678,7 @@
       </c>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>321</v>
       </c>
@@ -6519,7 +7705,7 @@
       </c>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>323</v>
       </c>
@@ -6546,7 +7732,7 @@
       </c>
       <c r="I166" s="1"/>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>324</v>
       </c>
@@ -6573,7 +7759,7 @@
       </c>
       <c r="I167" s="1"/>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>325</v>
       </c>
@@ -6600,7 +7786,7 @@
       </c>
       <c r="I168" s="1"/>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>327</v>
       </c>
@@ -6627,7 +7813,7 @@
       </c>
       <c r="I169" s="1"/>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>329</v>
       </c>
@@ -6654,7 +7840,7 @@
       </c>
       <c r="I170" s="1"/>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>331</v>
       </c>
@@ -6681,7 +7867,7 @@
       </c>
       <c r="I171" s="1"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>333</v>
       </c>
@@ -6708,7 +7894,7 @@
       </c>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>334</v>
       </c>
@@ -6735,7 +7921,7 @@
       </c>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>336</v>
       </c>
@@ -6762,7 +7948,7 @@
       </c>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>337</v>
       </c>
@@ -6789,7 +7975,7 @@
       </c>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>339</v>
       </c>
@@ -6816,7 +8002,7 @@
       </c>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>341</v>
       </c>
@@ -6843,7 +8029,7 @@
       </c>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>342</v>
       </c>
@@ -6870,7 +8056,7 @@
       </c>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>344</v>
       </c>
@@ -6897,7 +8083,7 @@
       </c>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>346</v>
       </c>
@@ -6924,7 +8110,7 @@
       </c>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>347</v>
       </c>
@@ -6951,7 +8137,7 @@
       </c>
       <c r="I181" s="1"/>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>349</v>
       </c>
@@ -6978,7 +8164,7 @@
       </c>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>350</v>
       </c>
@@ -7005,7 +8191,7 @@
       </c>
       <c r="I183" s="1"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>352</v>
       </c>
@@ -7032,7 +8218,7 @@
       </c>
       <c r="I184" s="1"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>354</v>
       </c>
@@ -7059,7 +8245,7 @@
       </c>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>356</v>
       </c>
@@ -7085,7 +8271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>359</v>
       </c>
@@ -7112,7 +8298,7 @@
       </c>
       <c r="I187" s="1"/>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>361</v>
       </c>
@@ -7139,7 +8325,7 @@
       </c>
       <c r="I188" s="1"/>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>363</v>
       </c>
@@ -7166,7 +8352,7 @@
       </c>
       <c r="I189" s="1"/>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>365</v>
       </c>
@@ -7193,7 +8379,7 @@
       </c>
       <c r="I190" s="1"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>367</v>
       </c>
@@ -7220,7 +8406,7 @@
       </c>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>368</v>
       </c>
@@ -7247,7 +8433,7 @@
       </c>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>370</v>
       </c>
@@ -7274,7 +8460,7 @@
       </c>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>372</v>
       </c>
@@ -7301,7 +8487,7 @@
       </c>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>374</v>
       </c>
@@ -7327,7 +8513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>376</v>
       </c>
@@ -7353,7 +8539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>378</v>
       </c>
@@ -7379,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>380</v>
       </c>
@@ -7405,7 +8591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>382</v>
       </c>
@@ -7431,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>384</v>
       </c>
@@ -7457,7 +8643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>385</v>
       </c>
@@ -7483,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>386</v>
       </c>
@@ -7509,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>388</v>
       </c>
@@ -7535,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>389</v>
       </c>
@@ -7561,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>391</v>
       </c>
@@ -7587,7 +8773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>394</v>
       </c>
@@ -7613,7 +8799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>396</v>
       </c>
@@ -7639,7 +8825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>398</v>
       </c>
@@ -7665,7 +8851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>398</v>
       </c>
@@ -7691,7 +8877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>400</v>
       </c>
@@ -7717,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>401</v>
       </c>
@@ -7743,7 +8929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>403</v>
       </c>
@@ -7769,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>405</v>
       </c>
@@ -7795,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>407</v>
       </c>
@@ -7821,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>408</v>
       </c>
@@ -7847,7 +9033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>410</v>
       </c>
@@ -7873,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>412</v>
       </c>
@@ -7899,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>415</v>
       </c>
@@ -7925,7 +9111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>417</v>
       </c>
@@ -7951,7 +9137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>419</v>
       </c>
@@ -7977,7 +9163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>421</v>
       </c>
@@ -8003,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>423</v>
       </c>
@@ -8029,7 +9215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>425</v>
       </c>
@@ -8055,7 +9241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>427</v>
       </c>
@@ -8081,7 +9267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>429</v>
       </c>
@@ -8107,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>431</v>
       </c>
@@ -8133,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>433</v>
       </c>
@@ -8159,7 +9345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>435</v>
       </c>
@@ -8185,7 +9371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>436</v>
       </c>
@@ -8211,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>438</v>
       </c>
@@ -8237,7 +9423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>440</v>
       </c>
@@ -8263,7 +9449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>441</v>
       </c>
@@ -8289,7 +9475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:8">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>442</v>
       </c>
@@ -8315,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:8">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>444</v>
       </c>
@@ -8341,7 +9527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:8">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>446</v>
       </c>
@@ -8367,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>448</v>
       </c>
@@ -8393,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:8">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>449</v>
       </c>
@@ -8419,7 +9605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>450</v>
       </c>
@@ -8445,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>452</v>
       </c>
@@ -8471,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>453</v>
       </c>
@@ -8497,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>455</v>
       </c>
@@ -8523,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>457</v>
       </c>
@@ -8549,7 +9735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>459</v>
       </c>
@@ -8575,7 +9761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>462</v>
       </c>
@@ -8601,7 +9787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>464</v>
       </c>
@@ -8627,7 +9813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>466</v>
       </c>
@@ -8653,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>468</v>
       </c>
@@ -8679,7 +9865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>468</v>
       </c>
@@ -8705,7 +9891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>470</v>
       </c>
@@ -8731,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>473</v>
       </c>
@@ -8757,7 +9943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>475</v>
       </c>
@@ -8783,7 +9969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>479</v>
       </c>
@@ -8809,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>480</v>
       </c>
@@ -8835,7 +10021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>481</v>
       </c>
@@ -8861,7 +10047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>483</v>
       </c>
@@ -8887,7 +10073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>486</v>
       </c>
@@ -8913,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>488</v>
       </c>
@@ -8939,7 +10125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>490</v>
       </c>
@@ -8965,7 +10151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>492</v>
       </c>
@@ -8991,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>494</v>
       </c>
@@ -9017,7 +10203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>495</v>
       </c>
@@ -9043,7 +10229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>497</v>
       </c>
@@ -9069,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>499</v>
       </c>
@@ -9095,7 +10281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>501</v>
       </c>
@@ -9121,7 +10307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>503</v>
       </c>
@@ -9147,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>506</v>
       </c>
@@ -9173,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>508</v>
       </c>
@@ -9199,7 +10385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>509</v>
       </c>
@@ -9225,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>510</v>
       </c>
@@ -9251,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:8">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>512</v>
       </c>
@@ -9277,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:8">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>514</v>
       </c>
@@ -9303,7 +10489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:8">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>515</v>
       </c>
@@ -9329,7 +10515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>517</v>
       </c>
@@ -9355,7 +10541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:8">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>518</v>
       </c>
@@ -9381,7 +10567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>519</v>
       </c>
@@ -9407,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>521</v>
       </c>
@@ -9433,7 +10619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>522</v>
       </c>
@@ -9459,7 +10645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>525</v>
       </c>
@@ -9485,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>527</v>
       </c>
@@ -9511,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>529</v>
       </c>
@@ -9537,7 +10723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>530</v>
       </c>
@@ -9563,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>531</v>
       </c>
@@ -9589,7 +10775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>533</v>
       </c>
@@ -9615,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>535</v>
       </c>
@@ -9641,7 +10827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>537</v>
       </c>
@@ -9667,7 +10853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>539</v>
       </c>
@@ -9693,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>541</v>
       </c>
@@ -9719,7 +10905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>542</v>
       </c>
@@ -9745,7 +10931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>543</v>
       </c>
@@ -9771,7 +10957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>545</v>
       </c>
@@ -9797,7 +10983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>547</v>
       </c>
@@ -9823,7 +11009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>549</v>
       </c>
@@ -9849,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>551</v>
       </c>
@@ -9875,7 +11061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>553</v>
       </c>
@@ -9901,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>554</v>
       </c>
@@ -9927,7 +11113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>556</v>
       </c>
@@ -9953,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>175</v>
       </c>
@@ -9979,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>558</v>
       </c>
@@ -10002,6 +11188,6028 @@
         <v>0</v>
       </c>
       <c r="H298" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B299" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E299" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G299" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H299" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B300" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E300" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="G300" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H300" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I300" s="1"/>
+      <c r="J300" s="1"/>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B301" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E301" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G301" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H301" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I301" s="1"/>
+      <c r="J301" s="1"/>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B302" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E302" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G302" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H302" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I302" s="1"/>
+      <c r="J302" s="1"/>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B303" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E303" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="G303" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H303" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I303" s="1"/>
+      <c r="J303" s="1"/>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B304" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E304" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="G304" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H304" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I304" s="1"/>
+      <c r="J304" s="1"/>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B305" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E305" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G305" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H305" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I305" s="1"/>
+      <c r="J305" s="1"/>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B306" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E306" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G306" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H306" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I306" s="1"/>
+      <c r="J306" s="1"/>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B307" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E307" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="G307" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H307" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I307" s="1"/>
+      <c r="J307" s="1"/>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B308" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E308" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G308" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H308" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I308" s="1"/>
+      <c r="J308" s="1"/>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B309" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E309" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G309" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H309" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I309" s="1"/>
+      <c r="J309" s="1"/>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B310" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E310" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="G310" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H310" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I310" s="1"/>
+      <c r="J310" s="1"/>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B311" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E311" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G311" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I311" s="1"/>
+      <c r="J311" s="1"/>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B312" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E312" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F312" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G312" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I312" s="1"/>
+      <c r="J312" s="1"/>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B313" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E313" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F313" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G313" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B314" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E314" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F314" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G314" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H314" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I314" s="1"/>
+      <c r="J314" s="1"/>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B315" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E315" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F315" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G315" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H315" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I315" s="1"/>
+      <c r="J315" s="1"/>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B316" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E316" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F316" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="G316" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H316" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I316" s="1"/>
+      <c r="J316" s="1"/>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B317" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E317" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F317" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="G317" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H317" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I317" s="1"/>
+      <c r="J317" s="1"/>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="B318" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E318" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F318" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G318" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H318" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B319" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E319" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F319" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G319" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H319" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I319" s="1"/>
+      <c r="J319" s="1"/>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B320" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E320" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F320" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G320" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H320" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I320" s="1"/>
+      <c r="J320" s="1"/>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="B321" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E321" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F321" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G321" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I321" s="1"/>
+      <c r="J321" s="1"/>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B322" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E322" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F322" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="G322" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I322" s="1"/>
+      <c r="J322" s="1"/>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B323" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E323" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F323" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="G323" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I323" s="1"/>
+      <c r="J323" s="1"/>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B324" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E324" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F324" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G324" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I324" s="1"/>
+      <c r="J324" s="1"/>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B325" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E325" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F325" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="G325" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I325" s="1"/>
+      <c r="J325" s="1"/>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B326" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E326" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F326" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="G326" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I326" s="1"/>
+      <c r="J326" s="1"/>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B327" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E327" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F327" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G327" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I327" s="1"/>
+      <c r="J327" s="1"/>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B328" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E328" s="1"/>
+      <c r="F328" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="G328" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I328" s="1"/>
+      <c r="J328" s="1"/>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B329" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E329" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F329" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G329" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H329" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I329" s="1"/>
+      <c r="J329" s="1"/>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B330" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E330" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F330" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="G330" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H330" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I330" s="1"/>
+      <c r="J330" s="1"/>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B331" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E331" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F331" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G331" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H331" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I331" s="1"/>
+      <c r="J331" s="1"/>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B332" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E332" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F332" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G332" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H332" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I332" s="1"/>
+      <c r="J332" s="1"/>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B333" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E333" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F333" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="G333" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H333" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I333" s="1"/>
+      <c r="J333" s="1"/>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B334" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E334" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F334" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="G334" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H334" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I334" s="1"/>
+      <c r="J334" s="1"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B335" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E335" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F335" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="G335" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H335" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I335" s="1"/>
+      <c r="J335" s="1"/>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B336" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E336" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F336" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G336" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H336" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I336" s="1"/>
+      <c r="J336" s="1"/>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B337" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E337" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F337" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G337" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H337" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I337" s="1"/>
+      <c r="J337" s="1"/>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B338" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E338" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F338" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="G338" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H338" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I338" s="1"/>
+      <c r="J338" s="1"/>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B339" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E339" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F339" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G339" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H339" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I339" s="1"/>
+      <c r="J339" s="1"/>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B340" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E340" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F340" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G340" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H340" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I340" s="1"/>
+      <c r="J340" s="1"/>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B341" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E341" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G341" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I341" s="1"/>
+      <c r="J341" s="1"/>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B342" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E342" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F342" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G342" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I342" s="1"/>
+      <c r="J342" s="1"/>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B343" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C343" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E343" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F343" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G343" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I343" s="1"/>
+      <c r="J343" s="1"/>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B344" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C344" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E344" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F344" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="G344" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I344" s="1"/>
+      <c r="J344" s="1"/>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B345" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C345" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E345" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F345" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G345" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I345" s="1"/>
+      <c r="J345" s="1"/>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B346" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C346" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E346" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F346" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G346" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H346" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I346" s="1"/>
+      <c r="J346" s="1"/>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B347" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C347" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E347" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F347" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G347" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H347" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I347" s="1"/>
+      <c r="J347" s="1"/>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B348" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C348" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E348" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F348" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="G348" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H348" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B349" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E349" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F349" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="G349" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I349" s="1"/>
+      <c r="J349" s="1"/>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B350" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C350" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E350" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F350" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G350" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I350" s="1"/>
+      <c r="J350" s="1"/>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B351" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C351" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E351" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F351" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G351" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I351" s="1"/>
+      <c r="J351" s="1"/>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B352" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C352" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E352" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F352" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G352" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H352" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I352" s="1"/>
+      <c r="J352" s="1"/>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B353" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C353" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E353" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F353" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G353" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H353" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I353" s="1"/>
+      <c r="J353" s="1"/>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B354" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C354" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E354" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F354" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="G354" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H354" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I354" s="1"/>
+      <c r="J354" s="1"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E355" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F355" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G355" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H355" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I355" s="1"/>
+      <c r="J355" s="1"/>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C356" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E356" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F356" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G356" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H356" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I356" s="1"/>
+      <c r="J356" s="1"/>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C357" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E357" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F357" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="G357" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H357" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I357" s="1"/>
+      <c r="J357" s="1"/>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C358" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E358" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F358" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="G358" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H358" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I358" s="1"/>
+      <c r="J358" s="1"/>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C359" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E359" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F359" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="G359" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H359" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I359" s="1"/>
+      <c r="J359" s="1"/>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C360" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E360" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G360" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H360" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I360" s="1"/>
+      <c r="J360" s="1"/>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B361" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E361" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G361" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H361" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I361" s="1"/>
+      <c r="J361" s="1"/>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C362" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E362" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="G362" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H362" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I362" s="1"/>
+      <c r="J362" s="1"/>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C363" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E363" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="G363" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I363" s="1"/>
+      <c r="J363" s="1"/>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E364" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="G364" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H364" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I364" s="1"/>
+      <c r="J364" s="1"/>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E365" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G365" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H365" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I365" s="1"/>
+      <c r="J365" s="1"/>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C366" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E366" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G366" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H366" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I366" s="1"/>
+      <c r="J366" s="1"/>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B367" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E367" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G367" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H367" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E368" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F368" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="G368" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H368" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I368" s="1"/>
+      <c r="J368" s="1"/>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A369" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E369" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="G369" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H369" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I369" s="1"/>
+      <c r="J369" s="1"/>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E370" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F370" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G370" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H370" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I370" s="1"/>
+      <c r="J370" s="1"/>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A371" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="B371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E371" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G371" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H371" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I371" s="1"/>
+      <c r="J371" s="1"/>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A372" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B372" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E372" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G372" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H372" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I372" s="1"/>
+      <c r="J372" s="1"/>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A373" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B373" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E373" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="G373" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H373" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C374" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E374" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G374" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H374" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I374" s="1"/>
+      <c r="J374" s="1"/>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A375" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B375" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C375" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E375" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F375" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="G375" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H375" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I375" s="1"/>
+      <c r="J375" s="1"/>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A376" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C376" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E376" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F376" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G376" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H376" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I376" s="1"/>
+      <c r="J376" s="1"/>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A377" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C377" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E377" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F377" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="G377" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H377" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I377" s="1"/>
+      <c r="J377" s="1"/>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A378" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C378" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E378" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F378" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="G378" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H378" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I378" s="1"/>
+      <c r="J378" s="1"/>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E379" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F379" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G379" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H379" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I379" s="1"/>
+      <c r="J379" s="1"/>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B380" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E380" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F380" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G380" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H380" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I380" s="1"/>
+      <c r="J380" s="1"/>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E381" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G381" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H381" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I381" s="1"/>
+      <c r="J381" s="1"/>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E382" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="G382" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H382" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I382" s="1"/>
+      <c r="J382" s="1"/>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B383" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E383" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="G383" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H383" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I383" s="1"/>
+      <c r="J383" s="1"/>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E384" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G384" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H384" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I384" s="1"/>
+      <c r="J384" s="1"/>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A385" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B385" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E385" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="G385" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H385" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I385" s="1"/>
+      <c r="J385" s="1"/>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A386" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E386" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G386" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H386" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I386" s="1"/>
+      <c r="J386" s="1"/>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A387" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B387" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E387" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F387" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="G387" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H387" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I387" s="1"/>
+      <c r="J387" s="1"/>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B388" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E388" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F388" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G388" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H388" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I388" s="1"/>
+      <c r="J388" s="1"/>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A389" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B389" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E389" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F389" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="G389" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H389" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I389" s="1"/>
+      <c r="J389" s="1"/>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A390" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B390" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E390" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F390" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="G390" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H390" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I390" s="1"/>
+      <c r="J390" s="1"/>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A391" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B391" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E391" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G391" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I391" s="1"/>
+      <c r="J391" s="1"/>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B392" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E392" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F392" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G392" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I392" s="1"/>
+      <c r="J392" s="1"/>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A393" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B393" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E393" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G393" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I393" s="1"/>
+      <c r="J393" s="1"/>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A394" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B394" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E394" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F394" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="G394" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I394" s="1"/>
+      <c r="J394" s="1"/>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A395" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B395" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E395" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G395" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I395" s="1"/>
+      <c r="J395" s="1"/>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B396" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E396" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G396" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H396" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I396" s="1"/>
+      <c r="J396" s="1"/>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A397" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B397" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E397" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="G397" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H397" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I397" s="1"/>
+      <c r="J397" s="1"/>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B398" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E398" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F398" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="G398" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H398" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I398" s="1"/>
+      <c r="J398" s="1"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A399" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B399" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E399" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F399" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G399" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H399" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I399" s="1"/>
+      <c r="J399" s="1"/>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A400" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B400" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E400" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="G400" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H400" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I400" s="1"/>
+      <c r="J400" s="1"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A401" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B401" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E401" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="G401" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H401" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I401" s="1"/>
+      <c r="J401" s="1"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A402" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B402" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E402" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G402" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H402" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I402" s="1"/>
+      <c r="J402" s="1"/>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A403" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B403" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E403" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F403" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="G403" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H403" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A404" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="B404" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E404" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F404" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="G404" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H404" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I404" s="1"/>
+      <c r="J404" s="1"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B405" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E405" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F405" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="G405" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H405" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I405" s="1"/>
+      <c r="J405" s="1"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A406" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="B406" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E406" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G406" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H406" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I406" s="1"/>
+      <c r="J406" s="1"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A407" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B407" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E407" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F407" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G407" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H407" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I407" s="1"/>
+      <c r="J407" s="1"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A408" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="B408" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E408" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F408" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="G408" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H408" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I408" s="1"/>
+      <c r="J408" s="1"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A409" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B409" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E409" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F409" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="G409" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H409" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I409" s="1"/>
+      <c r="J409" s="1"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="B410" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E410" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="G410" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H410" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I410" s="1"/>
+      <c r="J410" s="1"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B411" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E411" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F411" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G411" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H411" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I411" s="1"/>
+      <c r="J411" s="1"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="B412" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E412" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F412" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="G412" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H412" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I412" s="1"/>
+      <c r="J412" s="1"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B413" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E413" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F413" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="G413" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H413" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I413" s="1"/>
+      <c r="J413" s="1"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B414" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E414" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F414" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G414" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H414" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I414" s="1"/>
+      <c r="J414" s="1"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B415" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E415" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F415" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G415" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H415" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I415" s="1"/>
+      <c r="J415" s="1"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="B416" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E416" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F416" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="G416" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H416" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I416" s="1"/>
+      <c r="J416" s="1"/>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A417" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B417" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E417" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="G417" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H417" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I417" s="1"/>
+      <c r="J417" s="1"/>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B418" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E418" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F418" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G418" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H418" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I418" s="1"/>
+      <c r="J418" s="1"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="B419" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E419" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="G419" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H419" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I419" s="1"/>
+      <c r="J419" s="1"/>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B420" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E420" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G420" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H420" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I420" s="1"/>
+      <c r="J420" s="1"/>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A421" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B421" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E421" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="G421" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H421" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I421" s="1"/>
+      <c r="J421" s="1"/>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A422" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B422" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E422" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="G422" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H422" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I422" s="1"/>
+      <c r="J422" s="1"/>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="B423" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E423" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F423" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G423" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H423" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I423" s="1"/>
+      <c r="J423" s="1"/>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A424" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B424" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E424" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F424" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="G424" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H424" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I424" s="1"/>
+      <c r="J424" s="1"/>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A425" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B425" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E425" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F425" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="G425" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H425" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I425" s="1"/>
+      <c r="J425" s="1"/>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A426" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B426" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E426" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F426" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="G426" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H426" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I426" s="1"/>
+      <c r="J426" s="1"/>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A427" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B427" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E427" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F427" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="G427" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H427" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I427" s="1"/>
+      <c r="J427" s="1"/>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B428" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E428" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F428" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G428" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H428" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I428" s="1"/>
+      <c r="J428" s="1"/>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A429" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B429" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E429" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F429" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G429" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H429" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I429" s="1"/>
+      <c r="J429" s="1"/>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A430" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B430" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E430" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F430" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G430" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H430" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I430" s="1"/>
+      <c r="J430" s="1"/>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A431" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B431" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="E431" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F431" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="G431" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H431" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I431" s="1"/>
+      <c r="J431" s="1"/>
+    </row>
+    <row r="432" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A432" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B432" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E432" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="G432" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H432" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A433" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="B433" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E433" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F433" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="G433" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H433" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A434" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="B434" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E434" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F434" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G434" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H434" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A435" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="B435" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E435" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F435" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="G435" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H435" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A436" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="B436" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E436" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F436" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="G436" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H436" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A437" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="B437" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E437" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F437" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G437" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H437" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A438" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="B438" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E438" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F438" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G438" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H438" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A439" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="B439" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E439" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F439" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="G439" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H439" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A440" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="B440" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E440" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="G440" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H440" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A441" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="B441" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E441" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F441" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="G441" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H441" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A442" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="B442" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E442" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F442" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="G442" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H442" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A443" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="B443" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E443" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="G443" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H443" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A444" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="B444" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E444" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F444" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="G444" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H444" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A445" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B445" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E445" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F445" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="G445" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H445" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A446" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="B446" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E446" s="1">
+        <v>2021</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="G446" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H446" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A447" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B447" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E447" s="1">
+        <v>2024</v>
+      </c>
+      <c r="F447" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G447" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H447" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A448" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B448" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E448" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="G448" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H448" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A449" t="s">
+        <v>815</v>
+      </c>
+      <c r="B449" t="b">
+        <v>0</v>
+      </c>
+      <c r="C449" t="s">
+        <v>813</v>
+      </c>
+      <c r="D449" t="s">
+        <v>561</v>
+      </c>
+      <c r="E449">
+        <v>2022</v>
+      </c>
+      <c r="F449" t="s">
+        <v>50</v>
+      </c>
+      <c r="G449" t="b">
+        <v>0</v>
+      </c>
+      <c r="H449" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A450" t="s">
+        <v>816</v>
+      </c>
+      <c r="B450" t="b">
+        <v>0</v>
+      </c>
+      <c r="C450" t="s">
+        <v>813</v>
+      </c>
+      <c r="D450" t="s">
+        <v>561</v>
+      </c>
+      <c r="E450">
+        <v>2023</v>
+      </c>
+      <c r="F450" t="s">
+        <v>817</v>
+      </c>
+      <c r="G450" t="b">
+        <v>0</v>
+      </c>
+      <c r="H450" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A451" t="s">
+        <v>818</v>
+      </c>
+      <c r="B451" t="b">
+        <v>0</v>
+      </c>
+      <c r="C451" t="s">
+        <v>813</v>
+      </c>
+      <c r="D451" t="s">
+        <v>561</v>
+      </c>
+      <c r="E451">
+        <v>2023</v>
+      </c>
+      <c r="F451" t="s">
+        <v>819</v>
+      </c>
+      <c r="G451" t="b">
+        <v>0</v>
+      </c>
+      <c r="H451" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A452" t="s">
+        <v>820</v>
+      </c>
+      <c r="B452" t="b">
+        <v>1</v>
+      </c>
+      <c r="C452" t="s">
+        <v>813</v>
+      </c>
+      <c r="D452" t="s">
+        <v>561</v>
+      </c>
+      <c r="E452">
+        <v>2024</v>
+      </c>
+      <c r="F452" t="s">
+        <v>821</v>
+      </c>
+      <c r="G452" t="b">
+        <v>0</v>
+      </c>
+      <c r="H452" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A453" t="s">
+        <v>822</v>
+      </c>
+      <c r="B453" t="b">
+        <v>0</v>
+      </c>
+      <c r="C453" t="s">
+        <v>813</v>
+      </c>
+      <c r="D453" t="s">
+        <v>561</v>
+      </c>
+      <c r="E453">
+        <v>2021</v>
+      </c>
+      <c r="F453" t="s">
+        <v>823</v>
+      </c>
+      <c r="G453" t="b">
+        <v>0</v>
+      </c>
+      <c r="H453" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A454" t="s">
+        <v>824</v>
+      </c>
+      <c r="B454" t="b">
+        <v>0</v>
+      </c>
+      <c r="C454" t="s">
+        <v>813</v>
+      </c>
+      <c r="D454" t="s">
+        <v>561</v>
+      </c>
+      <c r="E454">
+        <v>2021</v>
+      </c>
+      <c r="F454" t="s">
+        <v>825</v>
+      </c>
+      <c r="G454" t="b">
+        <v>0</v>
+      </c>
+      <c r="H454" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A455" t="s">
+        <v>827</v>
+      </c>
+      <c r="B455" t="b">
+        <v>0</v>
+      </c>
+      <c r="C455" t="s">
+        <v>813</v>
+      </c>
+      <c r="D455" t="s">
+        <v>561</v>
+      </c>
+      <c r="E455">
+        <v>2022</v>
+      </c>
+      <c r="F455" t="s">
+        <v>828</v>
+      </c>
+      <c r="G455" t="b">
+        <v>0</v>
+      </c>
+      <c r="H455" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A456" t="s">
+        <v>829</v>
+      </c>
+      <c r="B456" t="b">
+        <v>0</v>
+      </c>
+      <c r="C456" t="s">
+        <v>813</v>
+      </c>
+      <c r="D456" t="s">
+        <v>561</v>
+      </c>
+      <c r="E456">
+        <v>2022</v>
+      </c>
+      <c r="F456" t="s">
+        <v>257</v>
+      </c>
+      <c r="G456" t="b">
+        <v>0</v>
+      </c>
+      <c r="H456" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A457" t="s">
+        <v>830</v>
+      </c>
+      <c r="B457" t="b">
+        <v>0</v>
+      </c>
+      <c r="C457" t="s">
+        <v>813</v>
+      </c>
+      <c r="D457" t="s">
+        <v>561</v>
+      </c>
+      <c r="E457">
+        <v>2023</v>
+      </c>
+      <c r="F457" t="s">
+        <v>831</v>
+      </c>
+      <c r="G457" t="b">
+        <v>0</v>
+      </c>
+      <c r="H457" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A458" t="s">
+        <v>832</v>
+      </c>
+      <c r="B458" t="b">
+        <v>0</v>
+      </c>
+      <c r="C458" t="s">
+        <v>813</v>
+      </c>
+      <c r="D458" t="s">
+        <v>561</v>
+      </c>
+      <c r="E458">
+        <v>2021</v>
+      </c>
+      <c r="F458" t="s">
+        <v>833</v>
+      </c>
+      <c r="G458" t="b">
+        <v>0</v>
+      </c>
+      <c r="H458" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A459" t="s">
+        <v>834</v>
+      </c>
+      <c r="B459" t="b">
+        <v>0</v>
+      </c>
+      <c r="C459" t="s">
+        <v>813</v>
+      </c>
+      <c r="D459" t="s">
+        <v>561</v>
+      </c>
+      <c r="E459">
+        <v>2021</v>
+      </c>
+      <c r="F459" t="s">
+        <v>835</v>
+      </c>
+      <c r="G459" t="b">
+        <v>0</v>
+      </c>
+      <c r="H459" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A460" t="s">
+        <v>836</v>
+      </c>
+      <c r="B460" t="b">
+        <v>0</v>
+      </c>
+      <c r="C460" t="s">
+        <v>813</v>
+      </c>
+      <c r="D460" t="s">
+        <v>561</v>
+      </c>
+      <c r="E460">
+        <v>2023</v>
+      </c>
+      <c r="F460" t="s">
+        <v>430</v>
+      </c>
+      <c r="G460" t="b">
+        <v>0</v>
+      </c>
+      <c r="H460" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>837</v>
+      </c>
+      <c r="B461" t="b">
+        <v>0</v>
+      </c>
+      <c r="C461" t="s">
+        <v>813</v>
+      </c>
+      <c r="D461" t="s">
+        <v>561</v>
+      </c>
+      <c r="E461">
+        <v>2021</v>
+      </c>
+      <c r="F461" t="s">
+        <v>838</v>
+      </c>
+      <c r="G461" t="b">
+        <v>0</v>
+      </c>
+      <c r="H461" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>839</v>
+      </c>
+      <c r="B462" t="b">
+        <v>1</v>
+      </c>
+      <c r="C462" t="s">
+        <v>813</v>
+      </c>
+      <c r="D462" t="s">
+        <v>561</v>
+      </c>
+      <c r="E462">
+        <v>2021</v>
+      </c>
+      <c r="F462" t="s">
+        <v>840</v>
+      </c>
+      <c r="G462" t="b">
+        <v>0</v>
+      </c>
+      <c r="H462" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>841</v>
+      </c>
+      <c r="B463" t="b">
+        <v>0</v>
+      </c>
+      <c r="C463" t="s">
+        <v>813</v>
+      </c>
+      <c r="D463" t="s">
+        <v>561</v>
+      </c>
+      <c r="E463">
+        <v>2023</v>
+      </c>
+      <c r="F463" t="s">
+        <v>842</v>
+      </c>
+      <c r="G463" t="b">
+        <v>0</v>
+      </c>
+      <c r="H463" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>843</v>
+      </c>
+      <c r="B464" t="b">
+        <v>0</v>
+      </c>
+      <c r="C464" t="s">
+        <v>813</v>
+      </c>
+      <c r="D464" t="s">
+        <v>561</v>
+      </c>
+      <c r="E464">
+        <v>2022</v>
+      </c>
+      <c r="F464" t="s">
+        <v>844</v>
+      </c>
+      <c r="G464" t="b">
+        <v>0</v>
+      </c>
+      <c r="H464" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>845</v>
+      </c>
+      <c r="B465" t="b">
+        <v>0</v>
+      </c>
+      <c r="C465" t="s">
+        <v>813</v>
+      </c>
+      <c r="D465" t="s">
+        <v>561</v>
+      </c>
+      <c r="E465">
+        <v>2023</v>
+      </c>
+      <c r="F465" t="s">
+        <v>846</v>
+      </c>
+      <c r="G465" t="b">
+        <v>0</v>
+      </c>
+      <c r="H465" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>847</v>
+      </c>
+      <c r="B466" t="b">
+        <v>0</v>
+      </c>
+      <c r="C466" t="s">
+        <v>813</v>
+      </c>
+      <c r="D466" t="s">
+        <v>561</v>
+      </c>
+      <c r="E466">
+        <v>2023</v>
+      </c>
+      <c r="F466" t="s">
+        <v>848</v>
+      </c>
+      <c r="G466" t="b">
+        <v>0</v>
+      </c>
+      <c r="H466" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>849</v>
+      </c>
+      <c r="B467" t="b">
+        <v>0</v>
+      </c>
+      <c r="C467" t="s">
+        <v>813</v>
+      </c>
+      <c r="D467" t="s">
+        <v>561</v>
+      </c>
+      <c r="E467">
+        <v>2023</v>
+      </c>
+      <c r="F467" t="s">
+        <v>850</v>
+      </c>
+      <c r="G467" t="b">
+        <v>0</v>
+      </c>
+      <c r="H467" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>851</v>
+      </c>
+      <c r="B468" t="b">
+        <v>1</v>
+      </c>
+      <c r="C468" t="s">
+        <v>813</v>
+      </c>
+      <c r="D468" t="s">
+        <v>561</v>
+      </c>
+      <c r="E468">
+        <v>2023</v>
+      </c>
+      <c r="F468" t="s">
+        <v>852</v>
+      </c>
+      <c r="G468" t="b">
+        <v>0</v>
+      </c>
+      <c r="H468" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>853</v>
+      </c>
+      <c r="B469" t="b">
+        <v>0</v>
+      </c>
+      <c r="C469" t="s">
+        <v>813</v>
+      </c>
+      <c r="D469" t="s">
+        <v>561</v>
+      </c>
+      <c r="E469">
+        <v>2022</v>
+      </c>
+      <c r="F469" t="s">
+        <v>854</v>
+      </c>
+      <c r="G469" t="b">
+        <v>0</v>
+      </c>
+      <c r="H469" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>855</v>
+      </c>
+      <c r="B470" t="b">
+        <v>0</v>
+      </c>
+      <c r="C470" t="s">
+        <v>813</v>
+      </c>
+      <c r="D470" t="s">
+        <v>561</v>
+      </c>
+      <c r="E470">
+        <v>2023</v>
+      </c>
+      <c r="F470" t="s">
+        <v>856</v>
+      </c>
+      <c r="G470" t="b">
+        <v>0</v>
+      </c>
+      <c r="H470" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>857</v>
+      </c>
+      <c r="B471" t="b">
+        <v>0</v>
+      </c>
+      <c r="C471" t="s">
+        <v>813</v>
+      </c>
+      <c r="D471" t="s">
+        <v>561</v>
+      </c>
+      <c r="E471">
+        <v>2022</v>
+      </c>
+      <c r="F471" t="s">
+        <v>858</v>
+      </c>
+      <c r="G471" t="b">
+        <v>0</v>
+      </c>
+      <c r="H471" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>859</v>
+      </c>
+      <c r="B472" t="b">
+        <v>0</v>
+      </c>
+      <c r="C472" t="s">
+        <v>813</v>
+      </c>
+      <c r="D472" t="s">
+        <v>561</v>
+      </c>
+      <c r="E472">
+        <v>2022</v>
+      </c>
+      <c r="F472" t="s">
+        <v>860</v>
+      </c>
+      <c r="G472" t="b">
+        <v>0</v>
+      </c>
+      <c r="H472" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>861</v>
+      </c>
+      <c r="B473" t="b">
+        <v>0</v>
+      </c>
+      <c r="C473" t="s">
+        <v>813</v>
+      </c>
+      <c r="D473" t="s">
+        <v>561</v>
+      </c>
+      <c r="E473">
+        <v>2022</v>
+      </c>
+      <c r="F473" t="s">
+        <v>862</v>
+      </c>
+      <c r="G473" t="b">
+        <v>0</v>
+      </c>
+      <c r="H473" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>863</v>
+      </c>
+      <c r="B474" t="b">
+        <v>0</v>
+      </c>
+      <c r="C474" t="s">
+        <v>813</v>
+      </c>
+      <c r="D474" t="s">
+        <v>561</v>
+      </c>
+      <c r="E474">
+        <v>2022</v>
+      </c>
+      <c r="F474" t="s">
+        <v>864</v>
+      </c>
+      <c r="G474" t="b">
+        <v>0</v>
+      </c>
+      <c r="H474" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>865</v>
+      </c>
+      <c r="B475" t="b">
+        <v>0</v>
+      </c>
+      <c r="C475" t="s">
+        <v>813</v>
+      </c>
+      <c r="D475" t="s">
+        <v>561</v>
+      </c>
+      <c r="E475">
+        <v>2022</v>
+      </c>
+      <c r="F475" t="s">
+        <v>866</v>
+      </c>
+      <c r="G475" t="b">
+        <v>0</v>
+      </c>
+      <c r="H475" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>867</v>
+      </c>
+      <c r="B476" t="b">
+        <v>0</v>
+      </c>
+      <c r="C476" t="s">
+        <v>813</v>
+      </c>
+      <c r="D476" t="s">
+        <v>561</v>
+      </c>
+      <c r="E476">
+        <v>2023</v>
+      </c>
+      <c r="F476" t="s">
+        <v>868</v>
+      </c>
+      <c r="G476" t="b">
+        <v>0</v>
+      </c>
+      <c r="H476" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>869</v>
+      </c>
+      <c r="B477" t="b">
+        <v>0</v>
+      </c>
+      <c r="C477" t="s">
+        <v>870</v>
+      </c>
+      <c r="D477" t="s">
+        <v>561</v>
+      </c>
+      <c r="E477">
+        <v>2023</v>
+      </c>
+      <c r="F477" t="s">
+        <v>871</v>
+      </c>
+      <c r="G477" t="b">
+        <v>0</v>
+      </c>
+      <c r="H477" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>872</v>
+      </c>
+      <c r="B478" t="b">
+        <v>0</v>
+      </c>
+      <c r="C478" t="s">
+        <v>870</v>
+      </c>
+      <c r="D478" t="s">
+        <v>561</v>
+      </c>
+      <c r="E478">
+        <v>2022</v>
+      </c>
+      <c r="F478" t="s">
+        <v>873</v>
+      </c>
+      <c r="G478" t="b">
+        <v>0</v>
+      </c>
+      <c r="H478" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>874</v>
+      </c>
+      <c r="B479" t="b">
+        <v>0</v>
+      </c>
+      <c r="C479" t="s">
+        <v>870</v>
+      </c>
+      <c r="D479" t="s">
+        <v>561</v>
+      </c>
+      <c r="E479">
+        <v>2023</v>
+      </c>
+      <c r="F479" t="s">
+        <v>875</v>
+      </c>
+      <c r="G479" t="b">
+        <v>0</v>
+      </c>
+      <c r="H479" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>876</v>
+      </c>
+      <c r="B480" t="b">
+        <v>0</v>
+      </c>
+      <c r="C480" t="s">
+        <v>870</v>
+      </c>
+      <c r="D480" t="s">
+        <v>561</v>
+      </c>
+      <c r="E480">
+        <v>2021</v>
+      </c>
+      <c r="F480" t="s">
+        <v>877</v>
+      </c>
+      <c r="G480" t="b">
+        <v>0</v>
+      </c>
+      <c r="H480" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>878</v>
+      </c>
+      <c r="B481" t="b">
+        <v>0</v>
+      </c>
+      <c r="C481" t="s">
+        <v>870</v>
+      </c>
+      <c r="D481" t="s">
+        <v>561</v>
+      </c>
+      <c r="E481">
+        <v>2022</v>
+      </c>
+      <c r="F481" t="s">
+        <v>879</v>
+      </c>
+      <c r="G481" t="b">
+        <v>0</v>
+      </c>
+      <c r="H481" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>880</v>
+      </c>
+      <c r="B482" t="b">
+        <v>0</v>
+      </c>
+      <c r="C482" t="s">
+        <v>870</v>
+      </c>
+      <c r="D482" t="s">
+        <v>561</v>
+      </c>
+      <c r="E482">
+        <v>2021</v>
+      </c>
+      <c r="F482" t="s">
+        <v>881</v>
+      </c>
+      <c r="G482" t="b">
+        <v>0</v>
+      </c>
+      <c r="H482" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>882</v>
+      </c>
+      <c r="B483" t="b">
+        <v>0</v>
+      </c>
+      <c r="C483" t="s">
+        <v>870</v>
+      </c>
+      <c r="D483" t="s">
+        <v>561</v>
+      </c>
+      <c r="E483">
+        <v>2022</v>
+      </c>
+      <c r="F483" t="s">
+        <v>883</v>
+      </c>
+      <c r="G483" t="b">
+        <v>0</v>
+      </c>
+      <c r="H483" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>884</v>
+      </c>
+      <c r="B484" t="b">
+        <v>1</v>
+      </c>
+      <c r="C484" t="s">
+        <v>870</v>
+      </c>
+      <c r="D484" t="s">
+        <v>561</v>
+      </c>
+      <c r="E484">
+        <v>2022</v>
+      </c>
+      <c r="F484" t="s">
+        <v>885</v>
+      </c>
+      <c r="G484" t="b">
+        <v>0</v>
+      </c>
+      <c r="H484" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>886</v>
+      </c>
+      <c r="B485" t="b">
+        <v>0</v>
+      </c>
+      <c r="C485" t="s">
+        <v>870</v>
+      </c>
+      <c r="D485" t="s">
+        <v>561</v>
+      </c>
+      <c r="E485">
+        <v>2021</v>
+      </c>
+      <c r="F485" t="s">
+        <v>887</v>
+      </c>
+      <c r="G485" t="b">
+        <v>0</v>
+      </c>
+      <c r="H485" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>888</v>
+      </c>
+      <c r="B486" t="b">
+        <v>0</v>
+      </c>
+      <c r="C486" t="s">
+        <v>870</v>
+      </c>
+      <c r="D486" t="s">
+        <v>561</v>
+      </c>
+      <c r="E486">
+        <v>2021</v>
+      </c>
+      <c r="F486" t="s">
+        <v>889</v>
+      </c>
+      <c r="G486" t="b">
+        <v>0</v>
+      </c>
+      <c r="H486" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>890</v>
+      </c>
+      <c r="B487" t="b">
+        <v>0</v>
+      </c>
+      <c r="C487" t="s">
+        <v>870</v>
+      </c>
+      <c r="D487" t="s">
+        <v>561</v>
+      </c>
+      <c r="E487">
+        <v>2023</v>
+      </c>
+      <c r="F487" t="s">
+        <v>891</v>
+      </c>
+      <c r="G487" t="b">
+        <v>0</v>
+      </c>
+      <c r="H487" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>892</v>
+      </c>
+      <c r="B488" t="b">
+        <v>0</v>
+      </c>
+      <c r="C488" t="s">
+        <v>870</v>
+      </c>
+      <c r="D488" t="s">
+        <v>561</v>
+      </c>
+      <c r="E488">
+        <v>2021</v>
+      </c>
+      <c r="F488" t="s">
+        <v>893</v>
+      </c>
+      <c r="G488" t="b">
+        <v>0</v>
+      </c>
+      <c r="H488" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>894</v>
+      </c>
+      <c r="B489" t="b">
+        <v>0</v>
+      </c>
+      <c r="C489" t="s">
+        <v>870</v>
+      </c>
+      <c r="D489" t="s">
+        <v>561</v>
+      </c>
+      <c r="E489">
+        <v>2022</v>
+      </c>
+      <c r="F489" t="s">
+        <v>895</v>
+      </c>
+      <c r="G489" t="b">
+        <v>0</v>
+      </c>
+      <c r="H489" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>896</v>
+      </c>
+      <c r="B490" t="b">
+        <v>0</v>
+      </c>
+      <c r="C490" t="s">
+        <v>870</v>
+      </c>
+      <c r="D490" t="s">
+        <v>561</v>
+      </c>
+      <c r="E490">
+        <v>2023</v>
+      </c>
+      <c r="F490" t="s">
+        <v>773</v>
+      </c>
+      <c r="G490" t="b">
+        <v>0</v>
+      </c>
+      <c r="H490" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>897</v>
+      </c>
+      <c r="B491" t="b">
+        <v>0</v>
+      </c>
+      <c r="C491" t="s">
+        <v>870</v>
+      </c>
+      <c r="D491" t="s">
+        <v>561</v>
+      </c>
+      <c r="E491">
+        <v>2022</v>
+      </c>
+      <c r="F491" t="s">
+        <v>898</v>
+      </c>
+      <c r="G491" t="b">
+        <v>0</v>
+      </c>
+      <c r="H491" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>899</v>
+      </c>
+      <c r="B492" t="b">
+        <v>0</v>
+      </c>
+      <c r="C492" t="s">
+        <v>870</v>
+      </c>
+      <c r="D492" t="s">
+        <v>561</v>
+      </c>
+      <c r="E492">
+        <v>2023</v>
+      </c>
+      <c r="F492" t="s">
+        <v>900</v>
+      </c>
+      <c r="G492" t="b">
+        <v>0</v>
+      </c>
+      <c r="H492" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>901</v>
+      </c>
+      <c r="B493" t="b">
+        <v>0</v>
+      </c>
+      <c r="C493" t="s">
+        <v>870</v>
+      </c>
+      <c r="D493" t="s">
+        <v>561</v>
+      </c>
+      <c r="E493">
+        <v>2021</v>
+      </c>
+      <c r="F493" t="s">
+        <v>902</v>
+      </c>
+      <c r="G493" t="b">
+        <v>0</v>
+      </c>
+      <c r="H493" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>903</v>
+      </c>
+      <c r="B494" t="b">
+        <v>0</v>
+      </c>
+      <c r="C494" t="s">
+        <v>904</v>
+      </c>
+      <c r="D494" t="s">
+        <v>561</v>
+      </c>
+      <c r="E494">
+        <v>2024</v>
+      </c>
+      <c r="F494" t="s">
+        <v>905</v>
+      </c>
+      <c r="G494" t="b">
+        <v>0</v>
+      </c>
+      <c r="H494" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>906</v>
+      </c>
+      <c r="B495" t="b">
+        <v>0</v>
+      </c>
+      <c r="C495" t="s">
+        <v>904</v>
+      </c>
+      <c r="D495" t="s">
+        <v>561</v>
+      </c>
+      <c r="E495">
+        <v>2024</v>
+      </c>
+      <c r="F495" t="s">
+        <v>907</v>
+      </c>
+      <c r="G495" t="b">
+        <v>0</v>
+      </c>
+      <c r="H495" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>908</v>
+      </c>
+      <c r="B496" t="b">
+        <v>0</v>
+      </c>
+      <c r="C496" t="s">
+        <v>904</v>
+      </c>
+      <c r="D496" t="s">
+        <v>561</v>
+      </c>
+      <c r="E496">
+        <v>2022</v>
+      </c>
+      <c r="F496" t="s">
+        <v>909</v>
+      </c>
+      <c r="G496" t="b">
+        <v>0</v>
+      </c>
+      <c r="H496" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>910</v>
+      </c>
+      <c r="B497" t="b">
+        <v>0</v>
+      </c>
+      <c r="C497" t="s">
+        <v>904</v>
+      </c>
+      <c r="D497" t="s">
+        <v>561</v>
+      </c>
+      <c r="E497">
+        <v>2022</v>
+      </c>
+      <c r="F497" t="s">
+        <v>911</v>
+      </c>
+      <c r="G497" t="b">
+        <v>0</v>
+      </c>
+      <c r="H497" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>912</v>
+      </c>
+      <c r="B498" t="b">
+        <v>0</v>
+      </c>
+      <c r="C498" t="s">
+        <v>904</v>
+      </c>
+      <c r="D498" t="s">
+        <v>561</v>
+      </c>
+      <c r="E498">
+        <v>2022</v>
+      </c>
+      <c r="F498" t="s">
+        <v>913</v>
+      </c>
+      <c r="G498" t="b">
+        <v>0</v>
+      </c>
+      <c r="H498" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>914</v>
+      </c>
+      <c r="B499" t="b">
+        <v>0</v>
+      </c>
+      <c r="C499" t="s">
+        <v>904</v>
+      </c>
+      <c r="D499" t="s">
+        <v>561</v>
+      </c>
+      <c r="E499">
+        <v>2024</v>
+      </c>
+      <c r="F499" t="s">
+        <v>915</v>
+      </c>
+      <c r="G499" t="b">
+        <v>0</v>
+      </c>
+      <c r="H499" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>916</v>
+      </c>
+      <c r="B500" t="b">
+        <v>0</v>
+      </c>
+      <c r="C500" t="s">
+        <v>904</v>
+      </c>
+      <c r="D500" t="s">
+        <v>561</v>
+      </c>
+      <c r="E500">
+        <v>2024</v>
+      </c>
+      <c r="F500" t="s">
+        <v>917</v>
+      </c>
+      <c r="G500" t="b">
+        <v>0</v>
+      </c>
+      <c r="H500" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>918</v>
+      </c>
+      <c r="B501" t="b">
+        <v>0</v>
+      </c>
+      <c r="C501" t="s">
+        <v>904</v>
+      </c>
+      <c r="D501" t="s">
+        <v>561</v>
+      </c>
+      <c r="E501">
+        <v>2023</v>
+      </c>
+      <c r="F501" t="s">
+        <v>919</v>
+      </c>
+      <c r="G501" t="b">
+        <v>0</v>
+      </c>
+      <c r="H501" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>920</v>
+      </c>
+      <c r="B502" t="b">
+        <v>0</v>
+      </c>
+      <c r="C502" t="s">
+        <v>904</v>
+      </c>
+      <c r="D502" t="s">
+        <v>561</v>
+      </c>
+      <c r="E502">
+        <v>2023</v>
+      </c>
+      <c r="F502" t="s">
+        <v>921</v>
+      </c>
+      <c r="G502" t="b">
+        <v>0</v>
+      </c>
+      <c r="H502" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>922</v>
+      </c>
+      <c r="B503" t="b">
+        <v>0</v>
+      </c>
+      <c r="C503" t="s">
+        <v>904</v>
+      </c>
+      <c r="D503" t="s">
+        <v>561</v>
+      </c>
+      <c r="E503">
+        <v>2023</v>
+      </c>
+      <c r="F503" t="s">
+        <v>923</v>
+      </c>
+      <c r="G503" t="b">
+        <v>0</v>
+      </c>
+      <c r="H503" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>924</v>
+      </c>
+      <c r="B504" t="b">
+        <v>0</v>
+      </c>
+      <c r="C504" t="s">
+        <v>904</v>
+      </c>
+      <c r="D504" t="s">
+        <v>561</v>
+      </c>
+      <c r="E504">
+        <v>2023</v>
+      </c>
+      <c r="F504" t="s">
+        <v>185</v>
+      </c>
+      <c r="G504" t="b">
+        <v>0</v>
+      </c>
+      <c r="H504" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>925</v>
+      </c>
+      <c r="B505" t="b">
+        <v>0</v>
+      </c>
+      <c r="C505" t="s">
+        <v>904</v>
+      </c>
+      <c r="D505" t="s">
+        <v>561</v>
+      </c>
+      <c r="E505">
+        <v>2022</v>
+      </c>
+      <c r="F505" t="s">
+        <v>456</v>
+      </c>
+      <c r="G505" t="b">
+        <v>0</v>
+      </c>
+      <c r="H505" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>926</v>
+      </c>
+      <c r="B506" t="b">
+        <v>0</v>
+      </c>
+      <c r="C506" t="s">
+        <v>904</v>
+      </c>
+      <c r="D506" t="s">
+        <v>561</v>
+      </c>
+      <c r="E506">
+        <v>2024</v>
+      </c>
+      <c r="F506" t="s">
+        <v>900</v>
+      </c>
+      <c r="G506" t="b">
+        <v>0</v>
+      </c>
+      <c r="H506" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>927</v>
+      </c>
+      <c r="B507" t="b">
+        <v>0</v>
+      </c>
+      <c r="C507" t="s">
+        <v>904</v>
+      </c>
+      <c r="D507" t="s">
+        <v>561</v>
+      </c>
+      <c r="E507">
+        <v>2023</v>
+      </c>
+      <c r="F507" t="s">
+        <v>928</v>
+      </c>
+      <c r="G507" t="b">
+        <v>0</v>
+      </c>
+      <c r="H507" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>929</v>
+      </c>
+      <c r="B508" t="b">
+        <v>0</v>
+      </c>
+      <c r="C508" t="s">
+        <v>904</v>
+      </c>
+      <c r="D508" t="s">
+        <v>561</v>
+      </c>
+      <c r="E508">
+        <v>2022</v>
+      </c>
+      <c r="F508" t="s">
+        <v>930</v>
+      </c>
+      <c r="G508" t="b">
+        <v>0</v>
+      </c>
+      <c r="H508" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>931</v>
+      </c>
+      <c r="B509" t="b">
+        <v>0</v>
+      </c>
+      <c r="C509" t="s">
+        <v>904</v>
+      </c>
+      <c r="D509" t="s">
+        <v>561</v>
+      </c>
+      <c r="E509">
+        <v>2023</v>
+      </c>
+      <c r="F509" t="s">
+        <v>932</v>
+      </c>
+      <c r="G509" t="b">
+        <v>0</v>
+      </c>
+      <c r="H509" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>933</v>
+      </c>
+      <c r="B510" t="b">
+        <v>0</v>
+      </c>
+      <c r="C510" t="s">
+        <v>904</v>
+      </c>
+      <c r="D510" t="s">
+        <v>561</v>
+      </c>
+      <c r="E510">
+        <v>2024</v>
+      </c>
+      <c r="F510" t="s">
+        <v>934</v>
+      </c>
+      <c r="G510" t="b">
+        <v>0</v>
+      </c>
+      <c r="H510" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>935</v>
+      </c>
+      <c r="B511" t="b">
+        <v>0</v>
+      </c>
+      <c r="C511" t="s">
+        <v>904</v>
+      </c>
+      <c r="D511" t="s">
+        <v>561</v>
+      </c>
+      <c r="E511">
+        <v>2021</v>
+      </c>
+      <c r="F511" t="s">
+        <v>826</v>
+      </c>
+      <c r="G511" t="b">
+        <v>0</v>
+      </c>
+      <c r="H511" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>936</v>
+      </c>
+      <c r="B512" t="b">
+        <v>0</v>
+      </c>
+      <c r="C512" t="s">
+        <v>904</v>
+      </c>
+      <c r="D512" t="s">
+        <v>561</v>
+      </c>
+      <c r="E512">
+        <v>2024</v>
+      </c>
+      <c r="F512" t="s">
+        <v>905</v>
+      </c>
+      <c r="G512" t="b">
+        <v>0</v>
+      </c>
+      <c r="H512" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>937</v>
+      </c>
+      <c r="B513" t="b">
+        <v>1</v>
+      </c>
+      <c r="C513" t="s">
+        <v>938</v>
+      </c>
+      <c r="D513" t="s">
+        <v>561</v>
+      </c>
+      <c r="E513">
+        <v>2022</v>
+      </c>
+      <c r="F513" t="s">
+        <v>939</v>
+      </c>
+      <c r="G513" t="b">
+        <v>0</v>
+      </c>
+      <c r="H513" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>940</v>
+      </c>
+      <c r="B514" t="b">
+        <v>0</v>
+      </c>
+      <c r="C514" t="s">
+        <v>938</v>
+      </c>
+      <c r="D514" t="s">
+        <v>561</v>
+      </c>
+      <c r="E514">
+        <v>2022</v>
+      </c>
+      <c r="F514" t="s">
+        <v>900</v>
+      </c>
+      <c r="G514" t="b">
+        <v>0</v>
+      </c>
+      <c r="H514" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>941</v>
+      </c>
+      <c r="B515" t="b">
+        <v>1</v>
+      </c>
+      <c r="C515" t="s">
+        <v>938</v>
+      </c>
+      <c r="D515" t="s">
+        <v>561</v>
+      </c>
+      <c r="E515">
+        <v>2022</v>
+      </c>
+      <c r="F515" t="s">
+        <v>278</v>
+      </c>
+      <c r="G515" t="b">
+        <v>0</v>
+      </c>
+      <c r="H515" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>942</v>
+      </c>
+      <c r="B516" t="b">
+        <v>0</v>
+      </c>
+      <c r="C516" t="s">
+        <v>938</v>
+      </c>
+      <c r="D516" t="s">
+        <v>561</v>
+      </c>
+      <c r="E516">
+        <v>2024</v>
+      </c>
+      <c r="F516" t="s">
+        <v>304</v>
+      </c>
+      <c r="G516" t="b">
+        <v>0</v>
+      </c>
+      <c r="H516" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>943</v>
+      </c>
+      <c r="B517" t="b">
+        <v>1</v>
+      </c>
+      <c r="C517" t="s">
+        <v>938</v>
+      </c>
+      <c r="D517" t="s">
+        <v>561</v>
+      </c>
+      <c r="E517">
+        <v>2023</v>
+      </c>
+      <c r="F517" t="s">
+        <v>944</v>
+      </c>
+      <c r="G517" t="b">
+        <v>0</v>
+      </c>
+      <c r="H517" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>945</v>
+      </c>
+      <c r="B518" t="b">
+        <v>0</v>
+      </c>
+      <c r="C518" t="s">
+        <v>938</v>
+      </c>
+      <c r="D518" t="s">
+        <v>561</v>
+      </c>
+      <c r="E518">
+        <v>2022</v>
+      </c>
+      <c r="F518" t="s">
+        <v>946</v>
+      </c>
+      <c r="G518" t="b">
+        <v>0</v>
+      </c>
+      <c r="H518" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>947</v>
+      </c>
+      <c r="B519" t="b">
+        <v>0</v>
+      </c>
+      <c r="C519" t="s">
+        <v>938</v>
+      </c>
+      <c r="D519" t="s">
+        <v>561</v>
+      </c>
+      <c r="E519">
+        <v>2022</v>
+      </c>
+      <c r="F519" t="s">
+        <v>948</v>
+      </c>
+      <c r="G519" t="b">
+        <v>0</v>
+      </c>
+      <c r="H519" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>949</v>
+      </c>
+      <c r="B520" t="b">
+        <v>1</v>
+      </c>
+      <c r="C520" t="s">
+        <v>938</v>
+      </c>
+      <c r="D520" t="s">
+        <v>561</v>
+      </c>
+      <c r="E520">
+        <v>2023</v>
+      </c>
+      <c r="F520" t="s">
+        <v>950</v>
+      </c>
+      <c r="G520" t="b">
+        <v>0</v>
+      </c>
+      <c r="H520" t="b">
         <v>0</v>
       </c>
     </row>

--- a/projects_2020/sports_loa/yale_athletics_master2021.xlsx
+++ b/projects_2020/sports_loa/yale_athletics_master2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleyqin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B882358-8A32-E54E-A16C-A8D84F03564C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A386A5-A7FA-4545-9AAF-BBE6E0246C84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{88FAA52A-4A7A-F149-888F-D5E12E6DA1BE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{88FAA52A-4A7A-F149-888F-D5E12E6DA1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3825,8 +3825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC5AF4B-3429-914F-87D4-8196E04559D2}">
   <dimension ref="A1:J629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A611" zoomScale="138" workbookViewId="0">
-      <selection activeCell="E628" sqref="E628"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="J209" sqref="J209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9530,7 +9530,12 @@
       <c r="F213" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G213" s="1"/>
+      <c r="G213" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H213" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -10539,8 +10544,12 @@
       <c r="F252" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G252" s="1"/>
-      <c r="H252" s="1"/>
+      <c r="G252" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H252" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
@@ -10561,8 +10570,12 @@
       <c r="F253" s="1" t="s">
         <v>949</v>
       </c>
-      <c r="G253" s="1"/>
-      <c r="H253" s="1"/>
+      <c r="G253" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H253" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
@@ -10583,8 +10596,12 @@
       <c r="F254" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="G254" s="1"/>
-      <c r="H254" s="1"/>
+      <c r="G254" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H254" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
@@ -10605,8 +10622,12 @@
       <c r="F255" s="1" t="s">
         <v>953</v>
       </c>
-      <c r="G255" s="1"/>
-      <c r="H255" s="1"/>
+      <c r="G255" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H255" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
@@ -10627,6 +10648,12 @@
       <c r="F256" s="1" t="s">
         <v>955</v>
       </c>
+      <c r="G256" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H256" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
@@ -11115,8 +11142,12 @@
       <c r="F275" s="1" t="s">
         <v>968</v>
       </c>
-      <c r="G275" s="1"/>
-      <c r="H275" s="1"/>
+      <c r="G275" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H275" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
@@ -11137,8 +11168,12 @@
       <c r="F276" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="G276" s="1"/>
-      <c r="H276" s="1"/>
+      <c r="G276" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H276" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
@@ -11159,8 +11194,12 @@
       <c r="F277" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="G277" s="1"/>
-      <c r="H277" s="1"/>
+      <c r="G277" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H277" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
@@ -11181,8 +11220,12 @@
       <c r="F278" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G278" s="1"/>
-      <c r="H278" s="1"/>
+      <c r="G278" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H278" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
@@ -11203,8 +11246,12 @@
       <c r="F279" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="G279" s="1"/>
-      <c r="H279" s="1"/>
+      <c r="G279" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H279" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
@@ -11225,8 +11272,12 @@
       <c r="F280" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="G280" s="1"/>
-      <c r="H280" s="1"/>
+      <c r="G280" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H280" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
@@ -11247,8 +11298,12 @@
       <c r="F281" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="G281" s="1"/>
-      <c r="H281" s="1"/>
+      <c r="G281" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H281" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
@@ -11269,8 +11324,12 @@
       <c r="F282" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="G282" s="1"/>
-      <c r="H282" s="1"/>
+      <c r="G282" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H282" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
@@ -11291,8 +11350,12 @@
       <c r="F283" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="G283" s="1"/>
-      <c r="H283" s="1"/>
+      <c r="G283" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H283" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
@@ -11313,6 +11376,12 @@
       <c r="F284" s="1" t="s">
         <v>985</v>
       </c>
+      <c r="G284" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H284" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
@@ -12009,8 +12078,12 @@
       <c r="F311" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="G311" s="1"/>
-      <c r="H311" s="1"/>
+      <c r="G311" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H311" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
@@ -12031,8 +12104,12 @@
       <c r="F312" s="1" t="s">
         <v>997</v>
       </c>
-      <c r="G312" s="1"/>
-      <c r="H312" s="1"/>
+      <c r="G312" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H312" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
@@ -12053,8 +12130,12 @@
       <c r="F313" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="G313" s="1"/>
-      <c r="H313" s="1"/>
+      <c r="G313" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H313" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
@@ -12075,8 +12156,12 @@
       <c r="F314" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="G314" s="1"/>
-      <c r="H314" s="1"/>
+      <c r="G314" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H314" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
@@ -12097,6 +12182,12 @@
       <c r="F315" s="1" t="s">
         <v>1002</v>
       </c>
+      <c r="G315" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H315" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
@@ -12689,8 +12780,12 @@
       <c r="F338" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="G338" s="1"/>
-      <c r="H338" s="1"/>
+      <c r="G338" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H338" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
@@ -12711,8 +12806,12 @@
       <c r="F339" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="G339" s="1"/>
-      <c r="H339" s="1"/>
+      <c r="G339" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H339" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
@@ -12733,8 +12832,12 @@
       <c r="F340" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="G340" s="1"/>
-      <c r="H340" s="1"/>
+      <c r="G340" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H340" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
@@ -12755,8 +12858,12 @@
       <c r="F341" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="G341" s="1"/>
-      <c r="H341" s="1"/>
+      <c r="G341" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H341" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
@@ -12776,6 +12883,12 @@
       </c>
       <c r="F342" s="1" t="s">
         <v>1011</v>
+      </c>
+      <c r="G342" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H342" s="1" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.2">
